--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auspost-my.sharepoint.com/personal/he_wang27_auspost_com_au/Documents/Documents/UiPath/AOPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{768B9CA8-C9EE-48DE-A48D-C37A17C808E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C989F98E-C28F-449C-B424-EDAD3106C6D0}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F4CCE82-A639-4DED-B6AB-B8C833B7C910}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Intermediate Algebra" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Algibra!$A$1:$D$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Counting &amp; Probability'!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Algibra!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Counting &amp; Probability'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Geometry!$A$1:$J$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Intermediate Algebra'!$A$1:$C$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Number Theory'!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="202">
   <si>
     <t>Topic</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Advanced Complex Numbers</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Quadratic Inequalities</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
   </si>
   <si>
     <t>&gt;90</t>
-  </si>
-  <si>
-    <t>&gt;75</t>
   </si>
   <si>
     <t>new</t>
@@ -1163,12 +1157,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1214,177 +1209,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2397,19 +2222,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2429,21 +2254,21 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -2467,18 +2292,14 @@
         <f t="shared" ref="H2:J30" si="0">E2-B2</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I4" si="1">F2-C2</f>
-        <v>0</v>
-      </c>
       <c r="J2">
         <f>G2-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -2490,30 +2311,26 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>91.7</v>
+        <v>88.9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -2537,20 +2354,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="J4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="2">
+        <v>112</v>
+      </c>
+      <c r="B5" s="5">
         <v>15</v>
       </c>
       <c r="C5">
@@ -2577,9 +2390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -2608,9 +2421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -2622,26 +2435,26 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>86.7</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>28</v>
@@ -2670,9 +2483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -2684,26 +2497,26 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>90.5</v>
+        <v>88</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -2715,28 +2528,28 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>85.7</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="2">
+        <v>118</v>
+      </c>
+      <c r="B11" s="5">
         <v>14</v>
       </c>
       <c r="C11">
@@ -2746,26 +2559,26 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>90.9</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>31</v>
@@ -2777,26 +2590,26 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>86.1</v>
+        <v>86.8</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -2808,28 +2621,28 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>91.7</v>
+        <v>92.6</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="2">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5">
         <v>15</v>
       </c>
       <c r="C14">
@@ -2856,9 +2669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2">
         <v>19</v>
@@ -2870,26 +2683,26 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>92</v>
+        <v>92.9</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>18</v>
@@ -2901,26 +2714,26 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>24</v>
@@ -2949,9 +2762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
@@ -2963,26 +2776,26 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>49</v>
@@ -2994,26 +2807,26 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19">
-        <v>93.9</v>
+        <v>92.2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -3025,26 +2838,26 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>85</v>
+        <v>85.4</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2">
         <v>11</v>
@@ -3073,9 +2886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2">
         <v>9</v>
@@ -3087,26 +2900,26 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <v>91.7</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -3118,26 +2931,26 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>87</v>
+        <v>91.7</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -3149,26 +2962,26 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>96.7</v>
+        <v>95.4</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2">
         <v>18</v>
@@ -3180,30 +2993,26 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>86.4</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <f>G25*7-E25</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2">
         <v>14</v>
@@ -3215,30 +3024,26 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>89.5</v>
+        <v>90.9</v>
       </c>
       <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I23:I30" si="2">20-E26</f>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2">
         <v>17</v>
@@ -3250,30 +3055,26 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>81.8</v>
+        <v>88.1</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <f>G27*7-E27</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2">
         <v>11</v>
@@ -3285,30 +3086,26 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>76.900000000000006</v>
+        <v>88</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <f>G28*7-E28</f>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2">
         <v>14</v>
@@ -3320,26 +3117,26 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F29">
-        <v>88</v>
+        <v>90.9</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2">
         <v>8</v>
@@ -3351,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -3361,90 +3158,83 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>194</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="27" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="top10" dxfId="64" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="top10" dxfId="63" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H30">
-    <cfRule type="top10" dxfId="11" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="10" priority="2" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="1" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -3464,21 +3254,21 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -3489,10 +3279,27 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>93.6</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H28" si="0">E2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J28" si="1">G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>29</v>
@@ -3503,10 +3310,27 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -3517,10 +3341,27 @@
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>89.2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -3531,10 +3372,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>88.2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -3545,10 +3403,27 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>97.3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>98</v>
@@ -3559,10 +3434,31 @@
       <c r="D7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>79.8</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f>IF(E7&gt;30,IF( F7&gt;85,0,G7*5-E7), 30-E7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>37</v>
@@ -3573,10 +3469,27 @@
       <c r="D8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>86.7</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2">
         <v>18</v>
@@ -3587,13 +3500,31 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>96.2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <f>IF(E9&gt;30,IF( F9&gt;85,0,G9*5-E9), 30-E9)</f>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>45</v>
@@ -3604,14 +3535,31 @@
       <c r="D10">
         <v>15</v>
       </c>
+      <c r="E10">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>74.7</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="I10">
-        <f>D10*5-B10</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*4-E10), 30-E10)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -3622,14 +3570,31 @@
       <c r="D11">
         <v>23</v>
       </c>
+      <c r="E11">
+        <v>89</v>
+      </c>
+      <c r="F11">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="I11">
-        <f>D11*5-B11</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <f>IF(E11&gt;30,IF( F11&gt;85,0,G11*4-E11), 30-E11)</f>
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>83</v>
@@ -3640,10 +3605,27 @@
       <c r="D12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>88.1</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -3654,13 +3636,31 @@
       <c r="D13">
         <v>2</v>
       </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I13:I28" si="2">IF(E13&gt;30,IF( F13&gt;85,0,G13*5-E13), 30-E13)</f>
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -3671,13 +3671,31 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>31</v>
@@ -3688,14 +3706,31 @@
       <c r="D15">
         <v>11</v>
       </c>
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>65.8</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="I15">
-        <f>D15*5-B15</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <f>IF(E15&gt;30,IF( F15&gt;85,0,G15*4-E15), 30-E15)</f>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>38</v>
@@ -3706,14 +3741,31 @@
       <c r="D16">
         <v>11</v>
       </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16">
-        <f>D16*5-B16</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -3724,13 +3776,31 @@
       <c r="D17">
         <v>2</v>
       </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>91.3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18">
         <v>29</v>
@@ -3741,14 +3811,31 @@
       <c r="D18">
         <v>8</v>
       </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18">
-        <f>D18*5-B18</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19">
         <v>57</v>
@@ -3759,14 +3846,31 @@
       <c r="D19">
         <v>20</v>
       </c>
+      <c r="E19">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>63.8</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I19">
-        <f>D19*5-B19</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(E19&gt;30,IF( F19&gt;85,0,G19*4-E19), 30-E19)</f>
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3777,13 +3881,31 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3794,14 +3916,31 @@
       <c r="D21">
         <v>6</v>
       </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21">
-        <f>D21*5-B21</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2">
         <v>16</v>
@@ -3812,13 +3951,31 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>93.8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -3829,14 +3986,31 @@
       <c r="D23">
         <v>9</v>
       </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="I23">
-        <f>D23*5-B23</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
@@ -3847,13 +4021,31 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>93.8</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -3864,13 +4056,31 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="2">
         <v>19</v>
@@ -3881,13 +4091,31 @@
       <c r="D26">
         <v>3</v>
       </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>84.2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2">
         <v>14</v>
@@ -3898,13 +4126,31 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>92.9</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -3915,52 +4161,86 @@
       <c r="D28">
         <v>4</v>
       </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
         <v>195</v>
       </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" t="s">
-        <v>196</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="86" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="85" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G28">
+    <cfRule type="top10" dxfId="32" priority="6" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="31" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E28">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J28">
+    <cfRule type="top10" dxfId="29" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1 H31:H1048576">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H2:H28">
+    <cfRule type="top10" dxfId="26" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F28">
+    <cfRule type="top10" dxfId="13" priority="1" percent="1" bottom="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3973,12 +4253,12 @@
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -3998,21 +4278,21 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>21</v>
@@ -4023,10 +4303,27 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>90.5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H30" si="0">E2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J30" si="1">G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -4037,10 +4334,27 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -4051,10 +4365,27 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>96.6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -4065,10 +4396,27 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -4079,10 +4427,27 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -4093,10 +4458,27 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>97.1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>33</v>
@@ -4107,10 +4489,27 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>97</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -4121,10 +4520,27 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>54</v>
@@ -4135,14 +4551,31 @@
       <c r="D10">
         <v>9</v>
       </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="I10">
-        <f>D10*7-B10</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*6-E10), 30-E10)</f>
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -4153,10 +4586,27 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>95.8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>31</v>
@@ -4167,10 +4617,27 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>93.6</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -4181,10 +4648,27 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>95.2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>37</v>
@@ -4195,10 +4679,27 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>94.6</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -4209,10 +4710,27 @@
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>87.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -4223,10 +4741,27 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>91.7</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>43</v>
@@ -4237,10 +4772,27 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>95.4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>45</v>
@@ -4251,14 +4803,27 @@
       <c r="D18">
         <v>7</v>
       </c>
-      <c r="I18">
-        <f t="shared" ref="I18:I19" si="0">D18*7-B18</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>85.1</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -4269,10 +4834,27 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>89.7</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2">
         <v>17</v>
@@ -4283,14 +4865,31 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>94.1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20">
-        <f t="shared" ref="I3:I30" si="1">24-B20</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(E20&gt;30,IF( F20&gt;85,0,G20*7-E20), 30-E20)</f>
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
@@ -4301,14 +4900,31 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I21:I30" si="2">IF(E21&gt;30,IF( F21&gt;85,0,G21*7-E21), 30-E21)</f>
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2">
         <v>13</v>
@@ -4319,14 +4935,31 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>92.3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -4337,14 +4970,31 @@
       <c r="D23">
         <v>0</v>
       </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2">
         <v>14</v>
@@ -4355,14 +5005,31 @@
       <c r="D24">
         <v>2</v>
       </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>85.7</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -4373,14 +5040,31 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
@@ -4391,14 +5075,31 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -4409,14 +5110,31 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2">
         <v>12</v>
@@ -4427,14 +5145,31 @@
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>83.3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -4445,14 +5180,31 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>90</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2">
         <v>8</v>
@@ -4463,79 +5215,107 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>198</v>
-      </c>
-      <c r="C37" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="80" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I30">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="I2:I9 I11:I19">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="H2:H30">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="lessThan">
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="top10" dxfId="54" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4546,12 +5326,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>61</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -4563,9 +5361,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -4577,9 +5375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -4591,9 +5389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>13</v>
@@ -4605,9 +5403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>14</v>
@@ -4619,9 +5417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -4633,9 +5431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -4647,9 +5445,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -4661,9 +5459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>23</v>
@@ -4675,9 +5473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>14</v>
@@ -4689,9 +5487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -4703,9 +5501,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>13</v>
@@ -4717,9 +5515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -4731,9 +5529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -4745,9 +5543,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -4759,9 +5557,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -4773,9 +5571,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -4787,9 +5585,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -4801,9 +5599,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>44</v>
@@ -4815,9 +5613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -4829,9 +5627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
         <v>12</v>
@@ -4843,9 +5641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4857,9 +5655,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1">
         <v>13</v>
@@ -4871,9 +5669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -4885,9 +5683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -4899,9 +5697,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>14</v>
@@ -4913,9 +5711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -4927,9 +5725,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -4941,9 +5739,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1">
         <v>12</v>
@@ -4955,9 +5753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>14</v>
@@ -4969,9 +5767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>14</v>
@@ -4983,9 +5781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>37</v>
@@ -4997,7 +5795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5011,9 +5809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -5025,9 +5823,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1">
         <v>13</v>
@@ -5039,9 +5837,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -5053,9 +5851,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1">
         <v>13</v>
@@ -5071,9 +5869,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -5085,9 +5883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -5099,9 +5897,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>27</v>
@@ -5117,9 +5915,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1">
         <v>13</v>
@@ -5131,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -5145,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -5159,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5173,9 +5971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -5187,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5201,9 +5999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" s="1">
         <v>14</v>
@@ -5215,9 +6013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>15</v>
@@ -5229,9 +6027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>17</v>
@@ -5243,9 +6041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -5261,9 +6059,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1">
         <v>13</v>
@@ -5275,9 +6073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1">
         <v>13</v>
@@ -5289,9 +6087,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>37</v>
@@ -5307,9 +6105,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55">
         <v>15</v>
@@ -5321,9 +6119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <v>18</v>
@@ -5335,9 +6133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1">
         <v>12</v>
@@ -5349,9 +6147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1">
         <v>13</v>
@@ -5363,9 +6161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59">
         <v>25</v>
@@ -5377,9 +6175,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60">
         <v>15</v>
@@ -5391,9 +6189,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61">
         <v>40</v>
@@ -5405,9 +6203,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62">
         <v>24</v>
@@ -5423,25 +6221,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>194</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" t="s">
-        <v>197</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D62" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5449,19 +6271,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5472,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5481,19 +6303,19 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5506,8 +6328,29 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>96.8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J30" si="0">E2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>IF(E2&gt;30,IF( F2&gt;85,0,G2*6-E2), 30-E2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5520,8 +6363,29 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I57" si="1">IF(E3&gt;30,IF( F3&gt;85,0,G3*6-E3), 30-E3)</f>
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5534,8 +6398,29 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5548,8 +6433,29 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5562,8 +6468,29 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>91.7</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5576,8 +6503,29 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5590,24 +6538,66 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>85.7</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>31</v>
@@ -5619,17 +6609,30 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>D10*5-B10</f>
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I10">
-        <f>D10*7-B10</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>44</v>
@@ -5640,10 +6643,31 @@
       <c r="D11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>86.4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -5654,10 +6678,31 @@
       <c r="D12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>88.9</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>29</v>
@@ -5668,10 +6713,31 @@
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>89.7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -5682,10 +6748,31 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -5696,10 +6783,31 @@
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>88.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -5710,10 +6818,31 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>92.3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -5724,10 +6853,31 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -5739,17 +6889,30 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <f>D18*5-B18</f>
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f>D18*7-B18</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>9</v>
@@ -5761,17 +6924,30 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <f>D19*5-B19</f>
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>66.7</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f>D19*7-B19</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -5782,10 +6958,31 @@
       <c r="D20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>82.6</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -5797,17 +6994,30 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <f>D21*5-B21</f>
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21">
-        <f>D21*7-B21</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -5818,10 +7028,31 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>92.9</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -5832,14 +7063,31 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23">
-        <f>D23*7-B23</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -5851,17 +7099,30 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <f>D24*5-B24</f>
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I24">
-        <f>D24*7-B24</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -5872,24 +7133,66 @@
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>83.3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>29</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -5901,17 +7204,30 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <f>D27*5-B27</f>
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>74.2</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I27">
-        <f>D27*7-B27</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>8</v>
@@ -5922,10 +7238,31 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
@@ -5936,24 +7273,66 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>32</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
       </c>
       <c r="B31">
         <v>39</v>
@@ -5964,10 +7343,31 @@
       <c r="D31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>92.3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H57" si="2">E31-B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J57" si="3">G31-D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>56</v>
@@ -5978,10 +7378,31 @@
       <c r="D32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>89.3</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -5992,10 +7413,31 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>7</v>
@@ -6006,38 +7448,101 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -6048,10 +7553,31 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>97.4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>15</v>
@@ -6062,10 +7588,31 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>93.3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -6076,10 +7623,31 @@
       <c r="D39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>88.2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -6090,10 +7658,31 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -6104,14 +7693,31 @@
       <c r="D41">
         <v>7</v>
       </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>82.1</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I41">
-        <f>D41*7-B41</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>17</v>
@@ -6122,14 +7728,31 @@
       <c r="D42">
         <v>3</v>
       </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>82.4</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I42">
-        <f>D42*7-B42</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -6140,10 +7763,31 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>6</v>
@@ -6154,28 +7798,66 @@
       <c r="D44">
         <v>1</v>
       </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>83.3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I44">
-        <f>D44*7-B44</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>47</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>8</v>
@@ -6186,10 +7868,31 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
@@ -6200,10 +7903,31 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -6214,52 +7938,136 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>53</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -6270,28 +8078,66 @@
       <c r="D52">
         <v>4</v>
       </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>83.3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I52">
-        <f>D52*7-B52</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -6302,24 +8148,66 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>57</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>58</v>
       </c>
       <c r="B56">
         <v>49</v>
@@ -6330,10 +8218,31 @@
       <c r="D56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>93.9</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -6344,96 +8253,56 @@
       <c r="D57">
         <v>4</v>
       </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I57">
-        <f>D57*7-B57</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C57" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="73" priority="13" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="15" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
+  <conditionalFormatting sqref="J2:J57">
+    <cfRule type="top10" dxfId="10" priority="5" percent="1" rank="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="71" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G2:G57">
+    <cfRule type="top10" dxfId="9" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E2:E57">
+    <cfRule type="top10" dxfId="8" priority="3" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F2:F57">
+    <cfRule type="top10" dxfId="7" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="68" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="66" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I2:I57">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auspost-my.sharepoint.com/personal/he_wang27_auspost_com_au/Documents/Documents/UiPath/AOPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F4CCE82-A639-4DED-B6AB-B8C833B7C910}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89F1D6A-7B0C-4DE0-A71D-5BBBFFE0D598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
     <sheet name="Counting &amp; Probability" sheetId="4" r:id="rId2"/>
-    <sheet name="Geometry" sheetId="5" r:id="rId3"/>
-    <sheet name="Algibra" sheetId="2" r:id="rId4"/>
-    <sheet name="Intermediate Algebra" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Geometry" sheetId="5" r:id="rId4"/>
+    <sheet name="Algibra" sheetId="2" r:id="rId5"/>
+    <sheet name="Intermediate Algebra" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Algibra!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Algibra!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Counting &amp; Probability'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Geometry!$A$1:$J$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Geometry!$A$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Number Theory'!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1157,13 +1158,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,327 +1209,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1923,6 +1603,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2227,14 +1911,14 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +1950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2297,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2328,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -2359,11 +2043,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>15</v>
       </c>
       <c r="C5">
@@ -2390,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2421,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -2452,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2483,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -2545,11 +2229,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>14</v>
       </c>
       <c r="C11">
@@ -2576,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2607,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -2638,11 +2322,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>15</v>
       </c>
       <c r="C14">
@@ -2669,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -2700,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -2731,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -2762,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -2793,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -2824,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -2855,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2886,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -2917,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -2948,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -2979,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3010,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -3041,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -3072,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3103,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -3134,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3165,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>193</v>
       </c>
@@ -3173,7 +2857,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>194</v>
       </c>
@@ -3183,37 +2867,37 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="top10" dxfId="37" priority="1" percent="1" bottom="1" rank="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="top10" dxfId="36" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="top10" dxfId="32" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="64" priority="9" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="63" priority="2" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
-    <cfRule type="top10" dxfId="62" priority="1" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3226,15 +2910,15 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3266,7 +2950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3297,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3328,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -3359,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -3390,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3421,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3435,28 +3119,28 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F7">
-        <v>79.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <f>IF(E7&gt;30,IF( F7&gt;85,0,G7*5-E7), 30-E7)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3487,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3522,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3549,15 +3233,15 @@
         <v>26</v>
       </c>
       <c r="I10">
-        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*4-E10), 30-E10)</f>
-        <v>1</v>
+        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*5-E10), 30-E10)</f>
+        <v>19</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -3584,15 +3268,15 @@
         <v>19</v>
       </c>
       <c r="I11">
-        <f>IF(E11&gt;30,IF( F11&gt;85,0,G11*4-E11), 30-E11)</f>
-        <v>7</v>
+        <f>IF(E11&gt;30,IF( F11&gt;85,0,G11*5-E11), 30-E11)</f>
+        <v>31</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -3623,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -3637,28 +3321,28 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>93.8</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I28" si="2">IF(E13&gt;30,IF( F13&gt;85,0,G13*5-E13), 30-E13)</f>
-        <v>10</v>
+        <f>IF(E13&gt;30,IF( F13&gt;85,,G13*5-E13), 30-E13)</f>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3672,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -3682,18 +3366,18 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" ref="I13:I28" si="2">IF(E14&gt;30,IF( F14&gt;85,0,G14*5-E14), 30-E14)</f>
+        <v>5</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -3707,28 +3391,28 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>65.8</v>
+        <v>73.3</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I15">
-        <f>IF(E15&gt;30,IF( F15&gt;85,0,G15*4-E15), 30-E15)</f>
-        <v>14</v>
+        <f>IF(E15&gt;30,IF( F15&gt;85,0,G15*5-E15), 30-E15)</f>
+        <v>25</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -3742,28 +3426,28 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>71.099999999999994</v>
+        <v>76.7</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>IF(E16&gt;30,IF( F16&gt;85,0,G16*5-E16), 30-E16)</f>
+        <v>10</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3798,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3812,28 +3496,28 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>72.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(E18&gt;30,IF( F18&gt;85,0,G18*5-E18), 30-E18)</f>
+        <v>7</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -3847,28 +3531,28 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19">
-        <v>63.8</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>21</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <f>IF(E19&gt;30,IF( F19&gt;85,0,G19*4-E19), 30-E19)</f>
-        <v>26</v>
+        <f>IF(E19&gt;30,IF( F19&gt;85,0,G19*5-E19), 30-E19)</f>
+        <v>45</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -3882,28 +3566,28 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>80</v>
+        <v>82.8</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -3930,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f>IF(E21&gt;30,IF( F21&gt;85,0,G21*5-E21), 30-E21)</f>
         <v>10</v>
       </c>
       <c r="J21">
@@ -3938,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -3973,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -3987,28 +3671,28 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F23">
-        <v>69.400000000000006</v>
+        <v>68.2</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <f>IF(E23&gt;30,IF( F23&gt;85,0,G23*5-E23), 30-E23)</f>
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -4043,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -4078,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -4092,28 +3776,28 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>84.2</v>
+        <v>85.7</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4148,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4183,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>197</v>
       </c>
@@ -4194,50 +3878,50 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E28">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F2:F28">
+    <cfRule type="top10" dxfId="26" priority="1" percent="1" bottom="1" rank="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="top10" dxfId="32" priority="6" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="31" priority="8" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="29" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="6" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="24" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28">
-    <cfRule type="top10" dxfId="26" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F28">
-    <cfRule type="top10" dxfId="13" priority="1" percent="1" bottom="1" rank="30"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J28">
+    <cfRule type="top10" dxfId="19" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4245,6 +3929,491 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972F7013-DE23-408F-815F-19BB39AF553B}">
+  <dimension ref="B1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2024</v>
+      </c>
+      <c r="D1">
+        <v>2025</v>
+      </c>
+      <c r="E1">
+        <v>2026</v>
+      </c>
+      <c r="F1">
+        <v>2027</v>
+      </c>
+      <c r="G1">
+        <v>2028</v>
+      </c>
+      <c r="H1">
+        <v>2029</v>
+      </c>
+      <c r="I1">
+        <v>2030</v>
+      </c>
+      <c r="J1">
+        <v>2031</v>
+      </c>
+      <c r="K1">
+        <v>2032</v>
+      </c>
+      <c r="L1">
+        <v>2033</v>
+      </c>
+      <c r="M1">
+        <v>2034</v>
+      </c>
+      <c r="N1">
+        <v>2035</v>
+      </c>
+      <c r="O1">
+        <v>2036</v>
+      </c>
+      <c r="P1">
+        <v>2037</v>
+      </c>
+      <c r="Q1">
+        <v>2038</v>
+      </c>
+      <c r="R1">
+        <v>2039</v>
+      </c>
+      <c r="S1">
+        <v>2040</v>
+      </c>
+      <c r="T1">
+        <v>2041</v>
+      </c>
+      <c r="U1">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>17700.900000000001</v>
+      </c>
+      <c r="C3">
+        <f>B3*1.05</f>
+        <v>18585.945000000003</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:U3" si="0">C3*1.05</f>
+        <v>19515.242250000003</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>20491.004362500003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>21515.554580625005</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>22591.332309656256</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>23720.89892513907</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>24906.943871396026</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>26152.29106496583</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>27459.905618214121</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>28832.90089912483</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>30274.545944081074</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>31788.273241285129</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>33377.686903349386</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>35046.571248516855</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>36798.899810942698</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>38638.844801489831</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>40570.787041564327</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>42599.326393642543</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>44729.29271332467</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>26949.64</v>
+      </c>
+      <c r="C4">
+        <f>B4*1.02</f>
+        <v>27488.632799999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:U4" si="1">C4*1.02</f>
+        <v>28038.405456</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>28599.17356512</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>29171.157036422399</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>29754.580177150849</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>30349.671780693865</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>30956.665216307742</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>31575.798520633896</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>32207.314491046574</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>32851.460780867506</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>33508.489996484859</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>34178.659796414555</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>34862.232992342848</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>35559.477652189707</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>36270.667205233505</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>36996.080549338178</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>37736.002160324941</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>38490.722203531441</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>39260.536647602072</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>32897.93</v>
+      </c>
+      <c r="C5">
+        <f>B5*1.05</f>
+        <v>34542.826500000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:U5" si="2">C5*1.05</f>
+        <v>36269.967825000007</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>38083.46621625001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>39987.639527062514</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>41987.021503415643</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>44086.37257858643</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>46290.691207515752</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>48605.225767891541</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>51035.487056286118</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>53587.261409100429</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>56266.624479555452</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>59079.955703533225</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>62033.953488709893</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>65135.65116314539</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>68392.433721302659</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>71812.055407367792</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>75402.658177736186</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>79172.791086622994</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>83131.430640954146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B3/B4</f>
+        <v>0.65681396857249308</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:U8" si="3">C3/C4</f>
+        <v>0.67613202647168413</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.69601826254438059</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.71648938791333305</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.73756260520490169</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.7592556230050459</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.78158667074048849</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.80457451399756175</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.8282384702916078</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.85259842530018448</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.87767484957371933</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.90348881573765227</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.93006201620052453</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.95741678138289277</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0.98557609848238958</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>1.0145636307906951</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1.0444037375786566</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0751214945662642</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>1.1067427149946838</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>1.1392939713180568</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>B4/B5</f>
+        <v>0.81918953563339691</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:U9" si="4">C4/C5</f>
+        <v>0.79578412032958556</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0.77304743117731167</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0.75096036171510272</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0.72950435138038539</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.70866136991237438</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.68841390220059218</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.6687449335662895</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.64963793546439541</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.63107685159398419</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.61304608440558461</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0.5955304819939965</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.57851532536559658</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0.56198631606943661</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.54592956418173844</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0.53033157663368879</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>0.51517924587272634</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0.50045983884779122</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>0.48616098630928295</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0.47227067241473203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
@@ -4253,12 +4422,12 @@
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4459,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -4321,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -4352,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4383,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -4414,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4445,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -4476,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -4507,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -4538,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4573,7 +4742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4604,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4635,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -4666,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -4697,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -4728,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -4759,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -4790,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -4821,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -4852,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -4887,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4922,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -4957,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>185</v>
       </c>
@@ -4992,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -5027,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -5062,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -5097,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -5132,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -5167,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -5202,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -5237,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>194</v>
       </c>
@@ -5245,7 +5414,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>197</v>
       </c>
@@ -5255,50 +5424,40 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="E1:E30">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="F1:F30">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="top10" dxfId="15" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H30">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9 I11:I19">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="J2:J30">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="54" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
@@ -5307,15 +5466,15 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -5361,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -5375,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -5389,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5403,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -5417,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -5431,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -5445,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -5459,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -5473,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -5487,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -5501,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -5515,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -5529,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -5543,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -5557,7 +5716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5571,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -5585,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -5599,7 +5758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -5613,7 +5772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -5627,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5641,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5655,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -5669,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -5683,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -5697,7 +5856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5711,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -5725,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -5739,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -5753,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -5767,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -5781,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -5795,7 +5954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5809,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -5823,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5837,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5851,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -5869,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -5883,7 +6042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -5897,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -5915,7 +6074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -5929,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -5943,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -5957,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5971,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -5985,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5999,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -6013,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -6027,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6041,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -6059,7 +6218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -6073,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -6087,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -6105,7 +6264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -6119,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -6133,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -6147,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -6161,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -6175,7 +6334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -6189,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -6203,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -6221,7 +6380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>193</v>
       </c>
@@ -6229,7 +6388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>194</v>
       </c>
@@ -6240,25 +6399,25 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6267,23 +6426,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6315,7 +6474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6350,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6385,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6420,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6455,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6490,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6525,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6560,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6595,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6630,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6665,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6700,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6735,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6770,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6805,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -6840,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6875,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6910,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -6945,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6980,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7015,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7050,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -7085,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -7120,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -7155,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -7190,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -7225,7 +7384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -7260,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -7295,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -7330,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -7365,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -7400,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -7435,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -7470,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -7505,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -7540,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -7575,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -7610,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7645,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7680,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -7715,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7750,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -7785,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -7820,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7855,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7890,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -7925,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7960,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -7995,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8030,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -8065,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -8100,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -8135,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -8170,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -8205,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -8240,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -8278,29 +8437,29 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E57">
+    <cfRule type="top10" dxfId="5" priority="3" percent="1" bottom="1" rank="20"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="10" priority="5" percent="1" rank="5"/>
+  <conditionalFormatting sqref="F2:F57">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="9" priority="4" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="8" priority="3" percent="1" bottom="1" rank="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="7" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="30"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J57">
+    <cfRule type="top10" dxfId="0" priority="5" percent="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auspost-my.sharepoint.com/personal/he_wang27_auspost_com_au/Documents/Documents/UiPath/AOPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89F1D6A-7B0C-4DE0-A71D-5BBBFFE0D598}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F94B09A-5778-4EED-9C7F-770784071341}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
     <sheet name="Counting &amp; Probability" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Intermediate Algebra" sheetId="1" r:id="rId3"/>
     <sheet name="Geometry" sheetId="5" r:id="rId4"/>
     <sheet name="Algibra" sheetId="2" r:id="rId5"/>
-    <sheet name="Intermediate Algebra" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Algibra!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Counting &amp; Probability'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Geometry!$A$1:$J$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Number Theory'!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1209,97 +1209,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1907,8 +1817,8 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2868,34 +2778,34 @@
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="top10" dxfId="37" priority="1" percent="1" bottom="1" rank="11"/>
+    <cfRule type="top10" dxfId="28" priority="1" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="36" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="32" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2906,11 +2816,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2918,7 +2828,7 @@
     <col min="1" max="1" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -2964,24 +2874,24 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>93.6</v>
+        <v>94.3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H28" si="0">E2-B2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J28" si="1">G2-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -3012,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -3026,24 +2936,24 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>89.2</v>
+        <v>92.6</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -3057,24 +2967,24 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>88.2</v>
+        <v>88.6</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3105,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3119,28 +3029,28 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F7">
-        <v>77.900000000000006</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <f>IF(E7&gt;30,IF( F7&gt;85,0,G7*5-E7), 30-E7)</f>
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <f>J7/H7</f>
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3154,24 +3064,24 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8">
-        <v>86.7</v>
+        <v>87.2</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3197,16 +3107,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9">
-        <f>IF(E9&gt;30,IF( F9&gt;85,0,G9*5-E9), 30-E9)</f>
-        <v>4</v>
-      </c>
       <c r="J9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3220,28 +3126,24 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F10">
-        <v>74.7</v>
+        <v>80.2</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*5-E10), 30-E10)</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -3255,28 +3157,24 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>73</v>
+        <v>80.2</v>
       </c>
       <c r="G11">
         <v>24</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I11">
-        <f>IF(E11&gt;30,IF( F11&gt;85,0,G11*5-E11), 30-E11)</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -3307,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -3333,16 +3231,12 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I13">
-        <f>IF(E13&gt;30,IF( F13&gt;85,,G13*5-E13), 30-E13)</f>
-        <v>0</v>
-      </c>
       <c r="J13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3356,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -3366,18 +3260,14 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I13:I28" si="2">IF(E14&gt;30,IF( F14&gt;85,0,G14*5-E14), 30-E14)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -3391,28 +3281,28 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F15">
-        <v>73.3</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="I15">
-        <f>IF(E15&gt;30,IF( F15&gt;85,0,G15*5-E15), 30-E15)</f>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>J15/H15</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -3426,28 +3316,28 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <f>IF(E16&gt;30,IF( F16&gt;85,0,G16*5-E16), 30-E16)</f>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f>J16/H16</f>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3473,16 +3363,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
       <c r="J17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3496,28 +3382,28 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F18">
-        <v>76.3</v>
+        <v>80.2</v>
       </c>
       <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <f>IF(E18&gt;30,IF( F18&gt;85,0,G18*5-E18), 30-E18)</f>
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f>J18/H18</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -3531,28 +3417,36 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>67.7</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I19">
-        <f>IF(E19&gt;30,IF( F19&gt;85,0,G19*5-E19), 30-E19)</f>
-        <v>45</v>
+        <f t="shared" ref="I19" si="2">IF( F19&gt;=80,IF(E19&gt;30,0, 30-E19),G19*5-E19)</f>
+        <v>57</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <f>J19/H19</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="L19">
+        <f>1-G19/(I19+E19)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -3579,15 +3473,14 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -3601,20 +3494,19 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>80.7</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <f>IF(E21&gt;30,IF( F21&gt;85,0,G21*5-E21), 30-E21)</f>
         <v>10</v>
       </c>
       <c r="J21">
@@ -3622,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -3649,15 +3541,14 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -3671,28 +3562,35 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F23">
-        <v>68.2</v>
+        <v>63.6</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <f>IF(E23&gt;30,IF( F23&gt;85,0,G23*5-E23), 30-E23)</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <f>J23/H23</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="L23">
+        <f>1-G23/(I23+E23)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -3719,15 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -3754,15 +3651,14 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -3776,28 +3672,27 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>85.7</v>
+        <v>82.6</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -3824,15 +3719,14 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3859,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I28" si="3">IF( F28&gt;=80,IF(E28&gt;30,0, 30-E28),G28*5-E28)</f>
         <v>10</v>
       </c>
       <c r="J28">
@@ -3867,7 +3761,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>SUM(I2:I28)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>197</v>
       </c>
@@ -3877,51 +3777,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
-      <formula>20</formula>
+  <conditionalFormatting sqref="F2:F28">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F28">
-    <cfRule type="top10" dxfId="26" priority="1" percent="1" bottom="1" rank="30"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="top10" dxfId="25" priority="6" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="24" priority="8" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
-    <cfRule type="top10" dxfId="21" priority="2" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="top10" dxfId="19" priority="1" percent="1" rank="25"/>
+    <cfRule type="top10" dxfId="18" priority="2" percent="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="19" priority="5" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
+    <cfRule type="top10" dxfId="17" priority="3" percent="1" rank="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3929,487 +3795,2046 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972F7013-DE23-408F-815F-19BB39AF553B}">
-  <dimension ref="B1:U9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:U9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>2023</v>
-      </c>
-      <c r="C1">
-        <v>2024</v>
-      </c>
-      <c r="D1">
-        <v>2025</v>
-      </c>
-      <c r="E1">
-        <v>2026</v>
-      </c>
-      <c r="F1">
-        <v>2027</v>
-      </c>
-      <c r="G1">
-        <v>2028</v>
-      </c>
-      <c r="H1">
-        <v>2029</v>
-      </c>
-      <c r="I1">
-        <v>2030</v>
-      </c>
-      <c r="J1">
-        <v>2031</v>
-      </c>
-      <c r="K1">
-        <v>2032</v>
-      </c>
-      <c r="L1">
-        <v>2033</v>
-      </c>
-      <c r="M1">
-        <v>2034</v>
-      </c>
-      <c r="N1">
-        <v>2035</v>
-      </c>
-      <c r="O1">
-        <v>2036</v>
-      </c>
-      <c r="P1">
-        <v>2037</v>
-      </c>
-      <c r="Q1">
-        <v>2038</v>
-      </c>
-      <c r="R1">
-        <v>2039</v>
-      </c>
-      <c r="S1">
-        <v>2040</v>
-      </c>
-      <c r="T1">
-        <v>2041</v>
-      </c>
-      <c r="U1">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>96.8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J30" si="0">E2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>IF( F2&gt;=80,IF(E2&gt;30,0, 30-E2),G2*8-E2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3">
-        <v>17700.900000000001</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <f>B3*1.05</f>
-        <v>18585.945000000003</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:U3" si="0">C3*1.05</f>
-        <v>19515.242250000003</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>20491.004362500003</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>21515.554580625005</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>22591.332309656256</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>23720.89892513907</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>24906.943871396026</v>
+        <f t="shared" ref="I3:I57" si="1">IF( F3&gt;=80,IF(E3&gt;30,0, 30-E3),G3*8-E3)</f>
+        <v>14</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>26152.29106496583</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>27459.905618214121</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>28832.90089912483</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>30274.545944081074</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>31788.273241285129</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>33377.686903349386</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>35046.571248516855</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>36798.899810942698</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>38638.844801489831</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>40570.787041564327</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>42599.326393642543</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>44729.29271332467</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4">
-        <v>26949.64</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <f>B4*1.02</f>
-        <v>27488.632799999999</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:U4" si="1">C4*1.02</f>
-        <v>28038.405456</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>28599.17356512</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>29171.157036422399</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>29754.580177150849</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>30349.671780693865</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>30956.665216307742</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>31575.798520633896</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>32207.314491046574</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>32851.460780867506</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>33508.489996484859</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>34178.659796414555</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>34862.232992342848</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="1"/>
-        <v>35559.477652189707</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>36270.667205233505</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>36996.080549338178</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>37736.002160324941</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>38490.722203531441</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="1"/>
-        <v>39260.536647602072</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5">
-        <v>32897.93</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <f>B5*1.05</f>
-        <v>34542.826500000003</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:U5" si="2">C5*1.05</f>
-        <v>36269.967825000007</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>91.7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>91.7</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>84.6</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>85.7</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>86.4</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>86.4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>88.9</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>88.9</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>89.7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>89.7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>88.5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>88.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>92.3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>92.3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>66.7</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>82.6</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>82.6</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>92.9</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>92.9</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>83.3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>83.3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>74.2</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>92.3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>92.3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H57" si="2">E31-B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J57" si="3">G31-D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>89.3</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+      <c r="F32">
+        <v>89.3</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
-        <v>38083.46621625001</v>
-      </c>
-      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
-        <v>39987.639527062514</v>
-      </c>
-      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>85.7</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
-        <v>41987.021503415643</v>
-      </c>
-      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
-        <v>44086.37257858643</v>
-      </c>
-      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
-        <v>46290.691207515752</v>
-      </c>
-      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>97.1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>97.4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>48605.225767891541</v>
-      </c>
-      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>93.3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>93.3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
-        <v>51035.487056286118</v>
-      </c>
-      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>88.2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>88.2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
-        <v>53587.261409100429</v>
-      </c>
-      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
-        <v>56266.624479555452</v>
-      </c>
-      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>82.1</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>82.1</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
-        <v>59079.955703533225</v>
-      </c>
-      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>82.4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>82.4</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
-        <v>62033.953488709893</v>
-      </c>
-      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="2"/>
-        <v>65135.65116314539</v>
-      </c>
-      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>83.3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>83.3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
-        <v>68392.433721302659</v>
-      </c>
-      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="2"/>
-        <v>71812.055407367792</v>
-      </c>
-      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
-        <v>75402.658177736186</v>
-      </c>
-      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
-        <v>79172.791086622994</v>
-      </c>
-      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
-        <v>83131.430640954146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f>B3/B4</f>
-        <v>0.65681396857249308</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:U8" si="3">C3/C4</f>
-        <v>0.67613202647168413</v>
-      </c>
-      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.69601826254438059</v>
-      </c>
-      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="3"/>
-        <v>0.71648938791333305</v>
-      </c>
-      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="3"/>
-        <v>0.73756260520490169</v>
-      </c>
-      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="3"/>
-        <v>0.7592556230050459</v>
-      </c>
-      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>83.3</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>83.3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="3"/>
-        <v>0.78158667074048849</v>
-      </c>
-      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="3"/>
-        <v>0.80457451399756175</v>
-      </c>
-      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="3"/>
-        <v>0.8282384702916078</v>
-      </c>
-      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.85259842530018448</v>
-      </c>
-      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>93.9</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>93.9</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="3"/>
-        <v>0.87767484957371933</v>
-      </c>
-      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="3"/>
-        <v>0.90348881573765227</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.93006201620052453</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0.95741678138289277</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>0.98557609848238958</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>1.0145636307906951</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>1.0444037375786566</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>1.0751214945662642</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>1.1067427149946838</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>1.1392939713180568</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f>B4/B5</f>
-        <v>0.81918953563339691</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:U9" si="4">C4/C5</f>
-        <v>0.79578412032958556</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>0.77304743117731167</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>0.75096036171510272</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>0.72950435138038539</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0.70866136991237438</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0.68841390220059218</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0.6687449335662895</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0.64963793546439541</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.63107685159398419</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>0.61304608440558461</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>0.5955304819939965</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>0.57851532536559658</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>0.56198631606943661</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
-        <v>0.54592956418173844</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>0.53033157663368879</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>0.51517924587272634</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>0.50045983884779122</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
-        <v>0.48616098630928295</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>0.47227067241473203</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f>SUM(I2:I57)</f>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E57">
+    <cfRule type="top10" dxfId="15" priority="3" percent="1" bottom="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F57">
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G57">
+    <cfRule type="top10" dxfId="12" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J57">
+    <cfRule type="top10" dxfId="11" priority="5" percent="1" rank="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4419,7 +5844,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4485,6 +5910,10 @@
         <f t="shared" ref="H2:H30" si="0">E2-B2</f>
         <v>0</v>
       </c>
+      <c r="I2">
+        <f>IF( F2&gt;=90,IF(E2&gt;30,0, 30-E2),G2*10-E2)</f>
+        <v>9</v>
+      </c>
       <c r="J2">
         <f t="shared" ref="J2:J30" si="1">G2-D2</f>
         <v>0</v>
@@ -4504,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4514,7 +5943,11 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="2">IF( F3&gt;=90,IF(E3&gt;30,0, 30-E3),G3*10-E3)</f>
+        <v>3</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
@@ -4535,16 +5968,20 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -4578,6 +6015,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="J5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4609,6 +6050,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="J6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4640,6 +6085,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4671,6 +6120,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4690,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -4700,7 +6153,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
@@ -4734,8 +6191,8 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f>IF(E10&gt;30,IF( F10&gt;85,0,G10*6-E10), 30-E10)</f>
-        <v>10</v>
+        <f>IF( F10&gt;=90,IF(E10&gt;30,0, 30-E10),G10*8-E10)</f>
+        <v>32</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -4768,6 +6225,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4787,16 +6248,20 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>93.6</v>
+        <v>93.9</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -4818,17 +6283,21 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
@@ -4849,16 +6318,20 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>94.6</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -4880,16 +6353,20 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15">
@@ -4923,6 +6400,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="J16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4954,6 +6435,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4985,6 +6470,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="J18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5016,6 +6505,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="J19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5048,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(E20&gt;30,IF( F20&gt;85,0,G20*7-E20), 30-E20)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J20">
@@ -5083,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I30" si="2">IF(E21&gt;30,IF( F21&gt;85,0,G21*7-E21), 30-E21)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J21">
@@ -5189,7 +6682,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
@@ -5329,7 +6822,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
@@ -5406,7 +6899,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>SUM(I2:I30)</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>194</v>
       </c>
@@ -5414,7 +6913,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>197</v>
       </c>
@@ -5425,30 +6924,30 @@
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="E1:E30">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F30">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>90</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="15" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9 I11:I19">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6399,25 +7898,25 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6427,2041 +7926,486 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972F7013-DE23-408F-815F-19BB39AF553B}">
+  <dimension ref="B1:U9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>96</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>96.8</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:J30" si="0">E2-B2</f>
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <f>IF(E2&gt;30,IF( F2&gt;85,0,G2*6-E2), 30-E2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>G2-D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2024</v>
+      </c>
+      <c r="D1">
+        <v>2025</v>
+      </c>
+      <c r="E1">
+        <v>2026</v>
+      </c>
+      <c r="F1">
+        <v>2027</v>
+      </c>
+      <c r="G1">
+        <v>2028</v>
+      </c>
+      <c r="H1">
+        <v>2029</v>
+      </c>
+      <c r="I1">
+        <v>2030</v>
+      </c>
+      <c r="J1">
+        <v>2031</v>
+      </c>
+      <c r="K1">
+        <v>2032</v>
+      </c>
+      <c r="L1">
+        <v>2033</v>
+      </c>
+      <c r="M1">
+        <v>2034</v>
+      </c>
+      <c r="N1">
+        <v>2035</v>
+      </c>
+      <c r="O1">
+        <v>2036</v>
+      </c>
+      <c r="P1">
+        <v>2037</v>
+      </c>
+      <c r="Q1">
+        <v>2038</v>
+      </c>
+      <c r="R1">
+        <v>2039</v>
+      </c>
+      <c r="S1">
+        <v>2040</v>
+      </c>
+      <c r="T1">
+        <v>2041</v>
+      </c>
+      <c r="U1">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>16</v>
+        <v>17700.900000000001</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <f>B3*1.05</f>
+        <v>18585.945000000003</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f t="shared" ref="D3:U3" si="0">C3*1.05</f>
+        <v>19515.242250000003</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20491.004362500003</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>21515.554580625005</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>22591.332309656256</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23720.89892513907</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I57" si="1">IF(E3&gt;30,IF( F3&gt;85,0,G3*6-E3), 30-E3)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>24906.943871396026</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
+        <v>26152.29106496583</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>27459.905618214121</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>28832.90089912483</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>30274.545944081074</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>31788.273241285129</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>33377.686903349386</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>35046.571248516855</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>36798.899810942698</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>38638.844801489831</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>40570.787041564327</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>42599.326393642543</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>44729.29271332467</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>20</v>
+        <v>26949.64</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <f>B4*1.02</f>
+        <v>27488.632799999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" ref="D4:U4" si="1">C4*1.02</f>
+        <v>28038.405456</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>28599.17356512</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>29171.157036422399</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>29754.580177150849</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>30349.671780693865</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30956.665216307742</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>31575.798520633896</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>32207.314491046574</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>32851.460780867506</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>33508.489996484859</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>34178.659796414555</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>34862.232992342848</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>35559.477652189707</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>36270.667205233505</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>36996.080549338178</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>37736.002160324941</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>38490.722203531441</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>39260.536647602072</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>17</v>
+        <v>32897.93</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <f>B5*1.05</f>
+        <v>34542.826500000003</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" ref="D5:U5" si="2">C5*1.05</f>
+        <v>36269.967825000007</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>38083.46621625001</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>39987.639527062514</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>41987.021503415643</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>44086.37257858643</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>46290.691207515752</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>91.7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>91.7</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>48605.225767891541</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>51035.487056286118</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>53587.261409100429</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>56266.624479555452</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>59079.955703533225</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>62033.953488709893</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>65135.65116314539</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>68392.433721302659</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>71812.055407367792</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>75402.658177736186</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>79172.791086622994</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>83131.430640954146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>13</v>
+        <f>B3/B4</f>
+        <v>0.65681396857249308</v>
       </c>
       <c r="C8">
-        <v>84.6</v>
+        <f t="shared" ref="C8:U8" si="3">C3/C4</f>
+        <v>0.67613202647168413</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0.69601826254438059</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>0.71648938791333305</v>
       </c>
       <c r="F8">
-        <v>85.7</v>
+        <f t="shared" si="3"/>
+        <v>0.73756260520490169</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>0.7592556230050459</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.78158667074048849</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>0.80457451399756175</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.8282384702916078</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.85259842530018448</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.87767484957371933</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.90348881573765227</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.93006201620052453</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.95741678138289277</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>0.98557609848238958</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>1.0145636307906951</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1.0444037375786566</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0751214945662642</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>1.1067427149946838</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>1.1392939713180568</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>B4/B5</f>
+        <v>0.81918953563339691</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" ref="C9:U9" si="4">C4/C5</f>
+        <v>0.79578412032958556</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.77304743117731167</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.75096036171510272</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.72950435138038539</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.70866136991237438</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.68841390220059218</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>0.6687449335662895</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-      <c r="C11">
-        <v>86.4</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>86.4</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>88.9</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>88.9</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>89.7</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>89.7</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>92</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>88.5</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="F15">
-        <v>88.5</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>92.3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>92.3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>80</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
-      </c>
-      <c r="F18">
-        <v>75</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>66.7</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>66.7</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>82.6</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>82.6</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>75</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>92.9</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>92.9</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2">
-        <v>79</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>19</v>
-      </c>
-      <c r="F24">
-        <v>79</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>83.3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>83.3</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2">
-        <v>79.3</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>31</v>
-      </c>
-      <c r="F27">
-        <v>74.2</v>
-      </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>92.3</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>39</v>
-      </c>
-      <c r="F31">
-        <v>92.3</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31:H57" si="2">E31-B31</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J57" si="3">G31-D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>56</v>
-      </c>
-      <c r="C32">
-        <v>89.3</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>56</v>
-      </c>
-      <c r="F32">
-        <v>89.3</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>85.7</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>80</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>97.1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>38</v>
-      </c>
-      <c r="F37">
-        <v>97.4</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>93.3</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
-      </c>
-      <c r="F38">
-        <v>93.3</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>17</v>
-      </c>
-      <c r="C39">
-        <v>88.2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>17</v>
-      </c>
-      <c r="F39">
-        <v>88.2</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40">
-        <v>90</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>90</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>82.1</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>39</v>
-      </c>
-      <c r="F41">
-        <v>82.1</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>82.4</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>17</v>
-      </c>
-      <c r="F42">
-        <v>82.4</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>8</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>83.3</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>83.3</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>100</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>24</v>
-      </c>
-      <c r="C52">
-        <v>83.3</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>24</v>
-      </c>
-      <c r="F52">
-        <v>83.3</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>49</v>
-      </c>
-      <c r="C56">
-        <v>93.9</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>49</v>
-      </c>
-      <c r="F56">
-        <v>93.9</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>80</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>20</v>
-      </c>
-      <c r="F57">
-        <v>80</v>
-      </c>
-      <c r="G57">
-        <v>4</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.64963793546439541</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.63107685159398419</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.61304608440558461</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0.5955304819939965</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.57851532536559658</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0.56198631606943661</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.54592956418173844</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0.53033157663368879</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>0.51517924587272634</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0.50045983884779122</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>0.48616098630928295</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0.47227067241473203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="5" priority="3" percent="1" bottom="1" rank="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I57">
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="0" priority="5" percent="1" rank="5"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="712" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E070B9A6-8CB4-4F2A-9EE1-2F4EB6909C7A}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B5156C-3367-4C97-83AB-B4F7D70C1FEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="204">
   <si>
     <t>Topic</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Status:MasteredReport for reginwonPercent:94Gave Up:0Incorrect:3Correct:4750PrealgebraAlgebraNumber TheoryCounting &amp; ProbabilityGeometryIntermediate AlgebraPrecalculusAll TopicsIntermediate AlgebraProgress in Intermediate AlgebraTopicsProgressDomain and Range96Graphing Functions97Inverse Functions96Function Composition99Complex Number Arithmetic95Magnitude of Complex Numbers91Basic Complex Numbers87Advanced Complex Numbers18Quadratic Inequalities92Graphing Quadratics95Quadratic Formula / Discriminant93Sum and Product of Roots95Quadratic Optimization94Circles92Ellipses89Hyperbolas87Parabolas72Advanced Conic Sections29Polynomial Division Algorithms85Remainder and Factor Theorem87Basic Polynomial Forms89Advanced Polynomial Forms26Integer / Rational Roots86Irrational Roots85Complex Roots34Polynomial Interpolation68Vieta's Formulas86Basic Polynomial Roots85Advanced Polynomial Roots33Arithmetic Sequences and Series96Geometric Sequences and Series94Telescoping Series84General Sequences and Series84Recursively Defined Sequences42Advanced Sequences and Series17Exponents and Logarithms95Radicals87Floor and Ceiling87Even and Odd Functions85Absolute Value91Piecewise-Defined Functions94Graphs of Rational Functions86Basic Rational Function Equations and Inequalities68Advanced Rational Function Equations and Inequalities19Partial Fractions89General Inequality Skills88AM-GM Inequality71Cauchy-Schwarz Inequality21Power Mean Inequality23Advanced Inequalities16Advanced Algebraic Manipulations88Factorization Identities29Basic Functional Equations72Advanced Functional Equations21Systems of Equations95Binomial Theorem75Problems in Systems of Equations$2024-06-26 04:42:09All triangles have the same value, and all circles have the same value. What is the sum of two circles? \begin{align*}\Delta + \bigcirc + \Delta + \bigcirc + \Delta + \bigcirc + \Delta + \Delta&amp;= 21\\\bigcirc + \Delta+\bigcirc+\Delta+\bigcirc + \Delta + \bigcirc + \bigcirc &amp;= 16\\\bigcirc + \bigcirc &amp;= \ \, ?\end{align*}$2023-01-11 17:24:54The workers in a factory produce widgets and whoosits. For each product, production time is constant and identical for all workers, but not necessarily equal for the two products. In one hour, 100 workers can produce 300 widgets and 200 whoosits. In two hours, 60 workers can produce 240 widgets and 300 whoosits. In three hours, 50 workers can produce 150 widgets and $m$ whoosits. Find $m$.$2023-01-10 17:21:07Solve the system\begin{align*}x + 3y + 2z &amp;= 1,\\-3x + y + 5z &amp;= 10,\\-2x - 3y +z &amp;= 7.\end{align*}Enter the solution $(x,y,z)$ as an ordered triplet.$2023-01-04 19:53:25If $a \div b = 2$ and $b \div c = \frac{3}{4}$, what is the value of $c \div a$? Express your answer as a common fraction.$2022-12-12 20:06:19A charity sells 140 benefit tickets for a total of $\$2001$. Some tickets sell for full price (a whole dollar amount), and the rest sell for half price. How much money is raised by the full-price tickets?$2022-12-09 02:46:38How many four-digit numbers $N$ have the property that the three-digit number obtained by removing the leftmost digit is one ninth of $N$?$2022-12-08 15:51:36All triangles have the same value, and all circles have the same value. What is the sum of three circles? \begin{align*}\Delta + \bigcirc + \Delta + \bigcirc + \Delta&amp;= 21\\\bigcirc + \Delta+\bigcirc+\Delta+\bigcirc &amp;= 19\\\bigcirc + \bigcirc + \bigcirc &amp;= \ ?\end{align*}$2022-12-08 15:41:44Solve for $e$, given that $2d$ is $8$ less than $17e$, and $2e$ is $9$ less than $d$.$2022-12-08 15:39:53If \begin{align*}2x-y&amp;=3,\\x+y &amp;=1,\end{align*}compute $8x-7y$.$2022-12-08 15:37:16For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}4x+ay&amp;=-8,\\2x+y&amp;=b.\end{align*}$2022-12-08 15:35:54Let $x &gt; 0$ and $y &gt; 0.$ Suppose that $xy^{2} = 6,$ and $x^{2}y^{6} = 72.$ What is the value of $xy\,?$ Express your answer in simplest radical form. $2022-12-08 15:33:00For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}3ax+3y&amp;=5b,\\2x+y&amp;=5.\end{align*}$2022-12-08 15:31:00Find an ordered pair $(x,y)$ that solves the system: \begin{align*} 2x - 3y &amp;= -3.2 - 0.2x + 0.1y,\\ x &amp;= 0.6x - y + 8.8 \end{align*}$2022-12-08 15:15:25An algebraic expression of the form $a + bx$ has the value of $15$ when $x = 2$ and the value of $3$ when $x = 5$. Calculate $a + b$.$2022-12-08 03:23:12If the system of equations\begin{align*}6x-4y&amp;=a,\\6y-9x &amp;=b.\end{align*}has a solution $(x, y)$ where $x$ and $y$ are both nonzero, find $\frac{a}{b},$ assuming $b$ is nonzero.$2022-12-08 03:16:34For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}2ax+2y&amp;=b,\\5x+y&amp;=-3?\end{align*}$2022-12-08 03:15:16Two squares, with integer side lengths $a$ and $b$, are arranged so that one entire side of the smaller square overlaps a part of a side of the larger square, and the two squares share a vertex, as shown. The perimeter of the entire figure is $86 \text{ cm}$, and the sum of the areas of the two squares is $386 \text{ cm}^2$. In centimeters, what is the value of $a+b$?  [Diagram] $2022-06-28 05:31:58Let $x,$ $y,$ and $z$ be real numbers such that\begin{align*}\log_2 (xyz - 3 + \log_5 x) &amp;= 5, \\\log_3 (xyz - 3 + \log_5 y) &amp;= 4, \\\log_4 (xyz - 3 + \log_5 z) &amp;= 4.\end{align*}Find $xyz.$$2022-01-17 23:54:04Andy, Beth, Charlie, and Daniel take a test with thirty questions. Andy and Beth together get the same number of questions wrong as Charlie and Daniel together. Andy and Daniel together get four more questions wrong than Beth and Charlie do together. If Charlie gets five questions wrong, how many questions does Andy get wrong?$2021-11-08 18:01:44If the system of equations  \begin{align*}3x+y&amp;=a,\\2x+5y&amp;=2a,\end{align*}has a solution $(x,y)$ when $x=2$, compute $a$.$2021-09-01 05:40:39If $x$, $y$, and $z$ are positive numbers satisfying \[x+\frac{1}{y}=4,\ \ \ y+\frac{1}{z}=1,\text{ and }z+\frac{1}{x}=\frac{7}{3},\]find the value of $xyz$.</t>
   </si>
 </sst>
 </file>
@@ -1594,6 +1597,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1893,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
@@ -2928,7 +2935,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,8 +3593,8 @@
         <v>55</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <f>MAX(G19*6-E19, 50-E19)</f>
+        <v>86</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
@@ -3730,8 +3737,8 @@
         <v>25</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
-        <v>103</v>
+        <f>MAX(G23*7-E23, 50-E23)</f>
+        <v>83</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
@@ -3920,7 +3927,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I30">
         <f>SUM(I19:I28)</f>
-        <v>497</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3988,9 +3995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,7 +4571,7 @@
         <v>49</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="I11:I19" si="2">MAX(G18*10-E18, 50-E18)</f>
+        <f t="shared" ref="I18" si="2">MAX(G18*10-E18, 50-E18)</f>
         <v>16</v>
       </c>
       <c r="J18">
@@ -4618,21 +4625,21 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>83.3</v>
+        <v>85.2</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <f>MAX(G20*10-E20, 30-E20)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
@@ -5008,40 +5015,40 @@
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7221,7 +7228,7 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="F2:F62">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7235,7 +7242,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7336,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="1">MAX(G3*10-E3, 30-E3)</f>
+        <f t="shared" ref="I2:I11" si="1">MAX(G3*10-E3, 30-E3)</f>
         <v>14</v>
       </c>
       <c r="J3">
@@ -8128,21 +8135,21 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -8163,21 +8170,21 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>72.7</v>
+        <v>73.5</v>
       </c>
       <c r="G27">
         <v>9</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f>MAX(G27*8-E27, 30-E27)</f>
+        <v>38</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -8404,21 +8411,21 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -8509,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>97.4</v>
@@ -8519,7 +8526,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
@@ -8890,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <v>100</v>
@@ -8900,11 +8907,11 @@
       </c>
       <c r="H48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -9169,18 +9176,18 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56">
-        <v>49</v>
+      <c r="E56" t="s">
+        <v>203</v>
       </c>
       <c r="F56">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="G56">
         <v>3</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
@@ -9225,26 +9232,26 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="11" priority="5" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="5" percent="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="10" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="9" priority="3" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="1" priority="3" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="8" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B5156C-3367-4C97-83AB-B4F7D70C1FEF}"/>
+  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21735B36-A2DF-496D-ABE0-6A9B8261A50B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
@@ -1170,13 +1170,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1223,7 +1222,207 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1597,10 +1796,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1898,11 +2093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +2107,7 @@
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1944,15 +2139,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>89.7</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1968,57 +2163,61 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:J30" si="0">E2-B2</f>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>MAX(G2*10-E2, 30-E2)</f>
+        <v>1</v>
       </c>
       <c r="J2">
         <f>G2-D2</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f>J2/H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>91.7</v>
+        <v>89.7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="1">MAX(G3*10-E3, 30-E3)</f>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2034,19 +2233,23 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="5">
-        <v>15</v>
+      <c r="B5">
+        <v>24</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -2065,14 +2268,18 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2098,20 +2305,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="J6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>86.7</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2127,26 +2338,26 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I30" si="1">IF(E7&gt;30,IF( F7&gt;90,0,G7*9-E7), 30-E7)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2162,25 +2373,29 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>31</v>
@@ -2193,22 +2408,22 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>85.7</v>
+        <v>87.5</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2224,22 +2439,26 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="5">
-        <v>14</v>
+      <c r="B11">
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>85.7</v>
+        <v>91.7</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2255,25 +2474,29 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
       <c r="B12">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2">
-        <v>83.9</v>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -2286,26 +2509,26 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>91.3</v>
+        <v>93.9</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2321,19 +2544,19 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="5">
-        <v>15</v>
+      <c r="B14">
+        <v>25</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2352,22 +2575,26 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="2">
-        <v>19</v>
+      <c r="B15">
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>89.5</v>
+        <v>93.3</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2383,25 +2610,29 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="2">
-        <v>18</v>
+      <c r="B16">
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>27</v>
@@ -2414,11 +2645,15 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2426,10 +2661,10 @@
         <v>124</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2445,7 +2680,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -2456,14 +2695,14 @@
       <c r="A18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="2">
-        <v>17</v>
+      <c r="B18">
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>94.1</v>
+        <v>92.6</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>27</v>
@@ -2476,11 +2715,15 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2488,13 +2731,13 @@
         <v>126</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>93.9</v>
+        <v>92.2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>51</v>
@@ -2507,11 +2750,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2519,10 +2762,10 @@
         <v>127</v>
       </c>
       <c r="B20">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>85.4</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -2538,11 +2781,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -2553,8 +2796,8 @@
       <c r="A21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="2">
-        <v>11</v>
+      <c r="B21">
+        <v>25</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -2573,7 +2816,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -2584,14 +2831,14 @@
       <c r="A22" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="2">
-        <v>9</v>
+      <c r="B22">
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>36</v>
@@ -2604,25 +2851,25 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="2">
-        <v>10</v>
+      <c r="B23">
+        <v>41</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>90.2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>41</v>
@@ -2635,11 +2882,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2647,13 +2894,13 @@
         <v>131</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>96.7</v>
+        <v>95.4</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>43</v>
@@ -2666,25 +2913,25 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
-        <v>77.8</v>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>86.7</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>45</v>
@@ -2697,29 +2944,29 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <f>IF( F25&gt;90,0,G25*9-E25)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="2">
-        <v>14</v>
+      <c r="B26">
+        <v>48</v>
       </c>
       <c r="C26">
-        <v>85.7</v>
+        <v>91.7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>48</v>
@@ -2732,25 +2979,25 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="2">
-        <v>17</v>
+      <c r="B27">
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>88.2</v>
+        <v>89.1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>46</v>
@@ -2763,25 +3010,29 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="2">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2">
-        <v>81.8</v>
+      <c r="B28">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>88.2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>51</v>
@@ -2794,26 +3045,26 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="2">IF( F28&gt;90,0,G28*9-E28)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2">
-        <v>78.599999999999994</v>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>90.9</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2829,7 +3080,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -2840,8 +3091,8 @@
       <c r="A30" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="2">
-        <v>8</v>
+      <c r="B30">
+        <v>23</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -2860,7 +3111,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -2889,40 +3140,41 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="30" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="29" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="top10" dxfId="28" priority="2" percent="1" bottom="1" rank="11"/>
+    <cfRule type="top10" dxfId="3" priority="6" percent="1" bottom="1" rank="11"/>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>89</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H30">
-    <cfRule type="top10" dxfId="27" priority="1" rank="10"/>
+  <conditionalFormatting sqref="D2:D30">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>89</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2935,7 +3187,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3030,7 +3282,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
@@ -3157,8 +3409,8 @@
         <v>58</v>
       </c>
       <c r="I7">
-        <f>MAX(G7*8-E7, 50-E7)</f>
-        <v>92</v>
+        <f>MAX(G7*6-E7, 40-E7)</f>
+        <v>30</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
@@ -3195,10 +3447,6 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I28" si="2">MAX(G8*8-E8, 50-E8)</f>
-        <v>3</v>
-      </c>
       <c r="J8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3231,8 +3479,8 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" ref="I8:I28" si="2">MAX(G9*6-E9, 40-E9)</f>
+        <v>14</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
@@ -3267,15 +3515,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="K10">
-        <f>J10/H10</f>
-        <v>6.5217391304347824E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3306,7 +3550,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -3372,7 +3616,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
@@ -3407,7 +3651,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
@@ -3442,7 +3686,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
@@ -3481,7 +3725,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
@@ -3520,7 +3764,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
@@ -3555,7 +3799,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
@@ -3580,21 +3824,21 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F19">
-        <v>70.5</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G19">
         <v>33</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I19">
-        <f>MAX(G19*6-E19, 50-E19)</f>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
@@ -3602,7 +3846,7 @@
       </c>
       <c r="K19">
         <f>J19/H19</f>
-        <v>0.23636363636363636</v>
+        <v>0.22033898305084745</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3633,7 +3877,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
@@ -3668,7 +3912,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
@@ -3703,7 +3947,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
@@ -3724,29 +3968,29 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I23">
-        <f>MAX(G23*7-E23, 50-E23)</f>
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <f>J23/H23</f>
-        <v>0.44</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3777,7 +4021,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
@@ -3812,7 +4056,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
@@ -3847,7 +4091,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
@@ -3882,7 +4126,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
@@ -3917,7 +4161,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
@@ -3927,7 +4171,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I30">
         <f>SUM(I19:I28)</f>
-        <v>411</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,50 +4185,50 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="13" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="top10" dxfId="22" priority="9" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="21" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="9" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="50" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28">
-    <cfRule type="top10" dxfId="17" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="top10" dxfId="16" priority="2" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="45" priority="2" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="15" priority="1" percent="1" rank="15"/>
+    <cfRule type="top10" dxfId="44" priority="1" percent="1" rank="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3993,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4005,7 +4249,7 @@
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -4068,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -4099,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4113,24 +4357,24 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -4161,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4192,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -4223,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -4253,8 +4497,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>J8/H8</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -4285,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4299,28 +4547,32 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F10">
-        <v>86.8</v>
+        <v>88.7</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="I10" s="6">
-        <f>MAX(G10*10-E10, 50-E10)</f>
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <f>MAX(G10*10-E10, 30-E10)</f>
+        <v>4</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>J10/H10</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4346,13 +4598,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4378,13 +4630,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -4410,13 +4662,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -4442,13 +4694,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -4474,13 +4726,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -4506,13 +4758,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -4538,13 +4790,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -4558,28 +4810,32 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>88.3</v>
+        <v>89</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" ref="I18" si="2">MAX(G18*10-E18, 50-E18)</f>
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <f>MAX(G18*10-E18, 30-E18)</f>
+        <v>10</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>J18/H18</f>
+        <v>7.2727272727272724E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -4605,13 +4861,17 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="5"/>
       <c r="J19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" ref="K19:K21" si="2">J19/H19</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -4625,28 +4885,32 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>85.2</v>
+        <v>88.1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <f>MAX(G20*10-E20, 30-E20)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -4660,28 +4924,28 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>92.3</v>
+        <v>93.8</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I30" si="3">MAX(G21*10-E21, 30-E21)</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -4695,28 +4959,28 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>94.1</v>
+        <v>96</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>MAX(G22*10-E22, 30-E22)</f>
+        <v>5</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>185</v>
       </c>
@@ -4730,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -4740,10 +5004,6 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J23">
@@ -4751,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -4778,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I21:I30" si="3">MAX(G24*9-E24, 30-E24)</f>
         <v>14</v>
       </c>
       <c r="J24">
@@ -4786,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -4821,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -4835,28 +5095,28 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>83.3</v>
+        <v>84.6</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -4891,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>190</v>
       </c>
@@ -4905,28 +5165,28 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>82.4</v>
+        <v>83.3</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -4961,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -5015,40 +5275,40 @@
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="7" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5059,9 +5319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7228,7 +7488,7 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="F2:F62">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7242,7 +7502,8 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I2:I11" si="1">MAX(G3*10-E3, 30-E3)</f>
+        <f t="shared" ref="I3:I11" si="1">MAX(G3*10-E3, 30-E3)</f>
         <v>14</v>
       </c>
       <c r="J3">
@@ -9232,26 +9493,29 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="3" priority="5" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="32" priority="6" percent="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="1" priority="3" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="28" priority="4" percent="1" bottom="1" rank="20"/>
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="3" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21735B36-A2DF-496D-ABE0-6A9B8261A50B}"/>
+  <xr:revisionPtr revIDLastSave="1432" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44454C7D-2DEF-4614-B026-ED4350C7C36F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="19110" yWindow="-10700" windowWidth="19200" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Geometry" sheetId="5" r:id="rId3"/>
     <sheet name="Algebra" sheetId="2" r:id="rId4"/>
     <sheet name="Intermediate Algebra" sheetId="1" r:id="rId5"/>
+    <sheet name="Prealgebra" sheetId="6" r:id="rId6"/>
+    <sheet name="Precalculus" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Algebra!$A$1:$J$1</definedName>
@@ -25,6 +27,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Geometry!$A$1:$J$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Intermediate Algebra'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Number Theory'!$A$1:$J$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Prealgebra!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Precalculus!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>Topic</t>
   </si>
@@ -655,14 +659,140 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Status:MasteredReport for reginwonPercent:94Gave Up:0Incorrect:3Correct:4750PrealgebraAlgebraNumber TheoryCounting &amp; ProbabilityGeometryIntermediate AlgebraPrecalculusAll TopicsIntermediate AlgebraProgress in Intermediate AlgebraTopicsProgressDomain and Range96Graphing Functions97Inverse Functions96Function Composition99Complex Number Arithmetic95Magnitude of Complex Numbers91Basic Complex Numbers87Advanced Complex Numbers18Quadratic Inequalities92Graphing Quadratics95Quadratic Formula / Discriminant93Sum and Product of Roots95Quadratic Optimization94Circles92Ellipses89Hyperbolas87Parabolas72Advanced Conic Sections29Polynomial Division Algorithms85Remainder and Factor Theorem87Basic Polynomial Forms89Advanced Polynomial Forms26Integer / Rational Roots86Irrational Roots85Complex Roots34Polynomial Interpolation68Vieta's Formulas86Basic Polynomial Roots85Advanced Polynomial Roots33Arithmetic Sequences and Series96Geometric Sequences and Series94Telescoping Series84General Sequences and Series84Recursively Defined Sequences42Advanced Sequences and Series17Exponents and Logarithms95Radicals87Floor and Ceiling87Even and Odd Functions85Absolute Value91Piecewise-Defined Functions94Graphs of Rational Functions86Basic Rational Function Equations and Inequalities68Advanced Rational Function Equations and Inequalities19Partial Fractions89General Inequality Skills88AM-GM Inequality71Cauchy-Schwarz Inequality21Power Mean Inequality23Advanced Inequalities16Advanced Algebraic Manipulations88Factorization Identities29Basic Functional Equations72Advanced Functional Equations21Systems of Equations95Binomial Theorem75Problems in Systems of Equations$2024-06-26 04:42:09All triangles have the same value, and all circles have the same value. What is the sum of two circles? \begin{align*}\Delta + \bigcirc + \Delta + \bigcirc + \Delta + \bigcirc + \Delta + \Delta&amp;= 21\\\bigcirc + \Delta+\bigcirc+\Delta+\bigcirc + \Delta + \bigcirc + \bigcirc &amp;= 16\\\bigcirc + \bigcirc &amp;= \ \, ?\end{align*}$2023-01-11 17:24:54The workers in a factory produce widgets and whoosits. For each product, production time is constant and identical for all workers, but not necessarily equal for the two products. In one hour, 100 workers can produce 300 widgets and 200 whoosits. In two hours, 60 workers can produce 240 widgets and 300 whoosits. In three hours, 50 workers can produce 150 widgets and $m$ whoosits. Find $m$.$2023-01-10 17:21:07Solve the system\begin{align*}x + 3y + 2z &amp;= 1,\\-3x + y + 5z &amp;= 10,\\-2x - 3y +z &amp;= 7.\end{align*}Enter the solution $(x,y,z)$ as an ordered triplet.$2023-01-04 19:53:25If $a \div b = 2$ and $b \div c = \frac{3}{4}$, what is the value of $c \div a$? Express your answer as a common fraction.$2022-12-12 20:06:19A charity sells 140 benefit tickets for a total of $\$2001$. Some tickets sell for full price (a whole dollar amount), and the rest sell for half price. How much money is raised by the full-price tickets?$2022-12-09 02:46:38How many four-digit numbers $N$ have the property that the three-digit number obtained by removing the leftmost digit is one ninth of $N$?$2022-12-08 15:51:36All triangles have the same value, and all circles have the same value. What is the sum of three circles? \begin{align*}\Delta + \bigcirc + \Delta + \bigcirc + \Delta&amp;= 21\\\bigcirc + \Delta+\bigcirc+\Delta+\bigcirc &amp;= 19\\\bigcirc + \bigcirc + \bigcirc &amp;= \ ?\end{align*}$2022-12-08 15:41:44Solve for $e$, given that $2d$ is $8$ less than $17e$, and $2e$ is $9$ less than $d$.$2022-12-08 15:39:53If \begin{align*}2x-y&amp;=3,\\x+y &amp;=1,\end{align*}compute $8x-7y$.$2022-12-08 15:37:16For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}4x+ay&amp;=-8,\\2x+y&amp;=b.\end{align*}$2022-12-08 15:35:54Let $x &gt; 0$ and $y &gt; 0.$ Suppose that $xy^{2} = 6,$ and $x^{2}y^{6} = 72.$ What is the value of $xy\,?$ Express your answer in simplest radical form. $2022-12-08 15:33:00For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}3ax+3y&amp;=5b,\\2x+y&amp;=5.\end{align*}$2022-12-08 15:31:00Find an ordered pair $(x,y)$ that solves the system: \begin{align*} 2x - 3y &amp;= -3.2 - 0.2x + 0.1y,\\ x &amp;= 0.6x - y + 8.8 \end{align*}$2022-12-08 15:15:25An algebraic expression of the form $a + bx$ has the value of $15$ when $x = 2$ and the value of $3$ when $x = 5$. Calculate $a + b$.$2022-12-08 03:23:12If the system of equations\begin{align*}6x-4y&amp;=a,\\6y-9x &amp;=b.\end{align*}has a solution $(x, y)$ where $x$ and $y$ are both nonzero, find $\frac{a}{b},$ assuming $b$ is nonzero.$2022-12-08 03:16:34For what ordered pair $(a,b)$ are there infinite solutions $(x,y)$ to the system \begin{align*}2ax+2y&amp;=b,\\5x+y&amp;=-3?\end{align*}$2022-12-08 03:15:16Two squares, with integer side lengths $a$ and $b$, are arranged so that one entire side of the smaller square overlaps a part of a side of the larger square, and the two squares share a vertex, as shown. The perimeter of the entire figure is $86 \text{ cm}$, and the sum of the areas of the two squares is $386 \text{ cm}^2$. In centimeters, what is the value of $a+b$?  [Diagram] $2022-06-28 05:31:58Let $x,$ $y,$ and $z$ be real numbers such that\begin{align*}\log_2 (xyz - 3 + \log_5 x) &amp;= 5, \\\log_3 (xyz - 3 + \log_5 y) &amp;= 4, \\\log_4 (xyz - 3 + \log_5 z) &amp;= 4.\end{align*}Find $xyz.$$2022-01-17 23:54:04Andy, Beth, Charlie, and Daniel take a test with thirty questions. Andy and Beth together get the same number of questions wrong as Charlie and Daniel together. Andy and Daniel together get four more questions wrong than Beth and Charlie do together. If Charlie gets five questions wrong, how many questions does Andy get wrong?$2021-11-08 18:01:44If the system of equations  \begin{align*}3x+y&amp;=a,\\2x+5y&amp;=2a,\end{align*}has a solution $(x,y)$ when $x=2$, compute $a$.$2021-09-01 05:40:39If $x$, $y$, and $z$ are positive numbers satisfying \[x+\frac{1}{y}=4,\ \ \ y+\frac{1}{z}=1,\text{ and }z+\frac{1}{x}=\frac{7}{3},\]find the value of $xyz$.</t>
+    <t>Arithmetic - Addition</t>
+  </si>
+  <si>
+    <t>Arithmetic - Multiplication</t>
+  </si>
+  <si>
+    <t>Arithmetic - Negatives</t>
+  </si>
+  <si>
+    <t>Arithmetic - Subtraction</t>
+  </si>
+  <si>
+    <t>Arithmetic - Reciprocals</t>
+  </si>
+  <si>
+    <t>Arithmetic - Division</t>
+  </si>
+  <si>
+    <t>Squares</t>
+  </si>
+  <si>
+    <t>General Positive Exponents</t>
+  </si>
+  <si>
+    <t>Order of Operations</t>
+  </si>
+  <si>
+    <t>Negative and Zero Exponents</t>
+  </si>
+  <si>
+    <t>Divisibility</t>
+  </si>
+  <si>
+    <t>Fraction Multiplication</t>
+  </si>
+  <si>
+    <t>Fraction Division</t>
+  </si>
+  <si>
+    <t>Fractions and Exponents</t>
+  </si>
+  <si>
+    <t>Simplifying Fractions</t>
+  </si>
+  <si>
+    <t>Fraction Addition and Subtraction</t>
+  </si>
+  <si>
+    <t>Mixed Numbers</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>Basic Linear Equations</t>
+  </si>
+  <si>
+    <t>Advanced Linear Equations</t>
+  </si>
+  <si>
+    <t>Word Problems</t>
+  </si>
+  <si>
+    <t>Inequalities</t>
+  </si>
+  <si>
+    <t>Decimal Arithmetic</t>
+  </si>
+  <si>
+    <t>Rounding Decimals</t>
+  </si>
+  <si>
+    <t>Decimals and Fractions</t>
+  </si>
+  <si>
+    <t>Ratio Basics</t>
+  </si>
+  <si>
+    <t>Proportions</t>
+  </si>
+  <si>
+    <t>Speed and Other Rates</t>
+  </si>
+  <si>
+    <t>Simple Percents</t>
+  </si>
+  <si>
+    <t>Combining Percents</t>
+  </si>
+  <si>
+    <t>Integer Square Roots</t>
+  </si>
+  <si>
+    <t>Non-integer Square Roots</t>
+  </si>
+  <si>
+    <t>Angle Basics</t>
+  </si>
+  <si>
+    <t>Parallel Lines and Triangles</t>
+  </si>
+  <si>
+    <t>Angles in a Polygon</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Quadrilaterals</t>
+  </si>
+  <si>
+    <t>Basic Statistics</t>
+  </si>
+  <si>
+    <t>Statistics - Reading Tables or Charts</t>
+  </si>
+  <si>
+    <t>Counting Lists</t>
+  </si>
+  <si>
+    <t>The Multiplication Principle in Counting</t>
+  </si>
+  <si>
+    <t>Counting Pairs</t>
+  </si>
+  <si>
+    <t>Basic Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,19 +923,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1170,13 +1287,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1222,7 +1338,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1796,6 +1942,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2095,9 +2245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,35 +2257,35 @@
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2166,8 +2316,8 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>MAX(G2*10-E2, 30-E2)</f>
-        <v>1</v>
+        <f>MAX(0, MAX(G2*8-E2, 20-E2))</f>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>G2-D2</f>
@@ -2201,8 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I30" si="1">MAX(G3*10-E3, 30-E3)</f>
-        <v>1</v>
+        <f t="shared" ref="I3:I6" si="1">MAX(0, MAX(G3*8-E3, 20-E3))</f>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
@@ -2237,7 +2387,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -2272,7 +2422,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -2307,7 +2457,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -2341,8 +2491,8 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="I7:I30" si="2">MAX(0, MAX(G7*8-E7, 40-E7))</f>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -2376,8 +2526,8 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -2410,6 +2560,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2442,8 +2596,8 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -2477,8 +2631,8 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -2512,8 +2666,8 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -2546,6 +2700,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="J13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2578,8 +2736,8 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -2613,8 +2771,8 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -2648,8 +2806,8 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -2683,8 +2841,8 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -2718,8 +2876,8 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -2752,6 +2910,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2784,8 +2946,8 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -2819,8 +2981,8 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -2853,6 +3015,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="J22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2884,6 +3050,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2915,6 +3085,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2947,8 +3121,8 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -2981,6 +3155,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3013,8 +3191,8 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -3048,8 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -3082,6 +3260,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="J29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3114,8 +3296,8 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
@@ -3141,40 +3323,44 @@
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="top10" dxfId="3" priority="6" percent="1" bottom="1" rank="11"/>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="lessThan">
       <formula>89</formula>
     </cfRule>
+    <cfRule type="top10" dxfId="52" priority="8" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
       <formula>89</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="11"/>
+    <cfRule type="top10" dxfId="49" priority="4" percent="1" bottom="1" rank="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I30">
+    <cfRule type="top10" dxfId="48" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3183,11 +3369,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3381,7 @@
     <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3227,15 +3413,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>93.6</v>
+        <v>94.3</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3251,19 +3437,23 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H28" si="0">E2-B2</f>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I6" si="1">MAX(0, MAX(G2*6-E2, 40-E2))</f>
+        <v>5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J28" si="1">G2-D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J2:J28" si="2">G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -3282,22 +3472,26 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>89.2</v>
+        <v>92.6</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3313,22 +3507,26 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>88.2</v>
+        <v>88.6</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3344,22 +3542,26 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>97.3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3375,25 +3577,29 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C7">
-        <v>82.7</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>156</v>
@@ -3406,30 +3612,26 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>MAX(G7*6-E7, 40-E7)</f>
+        <f>MAX(0, MAX(G7*6-E7, 40-E7))</f>
         <v>30</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K7">
-        <f>J7/H7</f>
-        <v>0.2413793103448276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>83.8</v>
+        <v>87.2</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3445,25 +3647,29 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I28" si="3">MAX(0, MAX(G8*6-E8, 40-E8))</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="2">
-        <v>18</v>
+      <c r="B9">
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>26</v>
@@ -3476,29 +3682,29 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I8:I28" si="2">MAX(G9*6-E9, 40-E9)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
       <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>66.7</v>
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>80.2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>91</v>
@@ -3511,29 +3717,29 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
       <c r="B11">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
-        <v>67.099999999999994</v>
+        <v>121</v>
+      </c>
+      <c r="C11">
+        <v>80.2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>121</v>
@@ -3546,26 +3752,26 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>88</v>
+        <v>88.1</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3581,22 +3787,26 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>93.8</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3612,23 +3822,23 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="2">
-        <v>15</v>
+      <c r="B14">
+        <v>30</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -3647,29 +3857,29 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
       <c r="B15">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2">
-        <v>64.5</v>
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>80.599999999999994</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>103</v>
@@ -3682,33 +3892,29 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <f>J15/H15</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>152</v>
       </c>
       <c r="B16">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2">
-        <v>71.099999999999994</v>
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>75</v>
@@ -3721,22 +3927,18 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <f>J16/H16</f>
-        <v>0.10810810810810811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -3763,26 +3965,26 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>154</v>
       </c>
       <c r="B18">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2">
-        <v>72.400000000000006</v>
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>80.2</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>86</v>
@@ -3795,33 +3997,29 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K18">
-        <f>J18/H18</f>
-        <v>0.15789473684210525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>155</v>
       </c>
       <c r="B19">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2">
-        <v>64.900000000000006</v>
+        <v>116</v>
+      </c>
+      <c r="C19">
+        <v>71.599999999999994</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>116</v>
@@ -3834,33 +4032,29 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K19">
-        <f>J19/H19</f>
-        <v>0.22033898305084745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>156</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>82.8</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>29</v>
@@ -3873,26 +4067,26 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>80.7</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -3908,22 +4102,22 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>16</v>
       </c>
       <c r="C22">
@@ -3946,26 +4140,26 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>159</v>
       </c>
       <c r="B23">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2">
-        <v>68.8</v>
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>63.9</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>61</v>
@@ -3978,26 +4172,22 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <f>J23/H23</f>
-        <v>0.41379310344827586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>16</v>
       </c>
       <c r="C24">
@@ -4020,19 +4210,19 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
@@ -4055,26 +4245,26 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="2">
-        <v>19</v>
+      <c r="B26">
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>84.2</v>
+        <v>82.6</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -4087,22 +4277,22 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>14</v>
       </c>
       <c r="C27">
@@ -4125,32 +4315,32 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -4160,21 +4350,21 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I30">
         <f>SUM(I19:I28)</f>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>197</v>
       </c>
@@ -4185,50 +4375,66 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="top10" dxfId="51" priority="9" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="50" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="15" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="41" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H28">
-    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="top10" dxfId="45" priority="2" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="36" priority="8" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="44" priority="1" percent="1" rank="15"/>
+    <cfRule type="top10" dxfId="35" priority="7" percent="1" rank="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I28">
+    <cfRule type="top10" dxfId="34" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="5" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D28">
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C28">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4237,11 +4443,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4455,7 @@
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4281,24 +4487,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>90.5</v>
+        <v>90.9</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>90.5</v>
+        <v>90.9</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4312,12 +4518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4336,6 +4542,10 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>MAX(0, MAX(G3*8-E3, 30-E3))</f>
         <v>2</v>
       </c>
       <c r="J3">
@@ -4343,15 +4553,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>96.6</v>
+        <v>97.1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4367,22 +4577,26 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I30" si="2">MAX(0, MAX(G4*8-E4, 30-E4))</f>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>96.6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4398,19 +4612,23 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -4429,22 +4647,26 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>97.1</v>
+        <v>98.7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4460,25 +4682,29 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -4491,29 +4717,29 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <f>J8/H8</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -4526,93 +4752,96 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
       <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2">
-        <v>81.5</v>
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>88.7</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <f>MAX(G10*10-E10, 30-E10)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>J10/H10</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>95.8</v>
+        <v>97.6</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>93.6</v>
+        <v>95.2</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -4628,23 +4857,26 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>95.2</v>
+        <v>96.7</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4660,23 +4892,26 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>94.6</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4692,23 +4927,26 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I14" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>177</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>87.5</v>
+        <v>91.9</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -4724,23 +4962,26 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>178</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>91.7</v>
+        <v>94.1</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -4756,23 +4997,26 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>179</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>95.4</v>
+        <v>95.7</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4788,204 +5032,198 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
       <c r="B18">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
-        <v>84.4</v>
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>88.1</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18">
-        <v>89</v>
+        <v>88.1</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f>MAX(G18*10-E18, 30-E18)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <f>J18/H18</f>
-        <v>7.2727272727272724E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K21" si="2">J19/H19</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="2">
-        <v>17</v>
+      <c r="B20">
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>94.1</v>
+        <v>88.6</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F20">
-        <v>88.1</v>
+        <v>87</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <f>MAX(G20*10-E20, 30-E20)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="2">
-        <v>7</v>
+      <c r="B21">
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>93.8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>93.8</v>
+        <v>92.9</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="2">
-        <v>13</v>
+      <c r="B22">
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>92.3</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>96</v>
+        <v>92.6</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f>MAX(G22*10-E22, 30-E22)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="2">
-        <v>10</v>
+      <c r="B23">
+        <v>30</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -4994,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -5004,54 +5242,58 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="2">
-        <v>14</v>
+      <c r="B24">
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>85.7</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>87.5</v>
+        <v>92.5</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I21:I30" si="3">MAX(G24*9-E24, 30-E24)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="2">
-        <v>7</v>
+      <c r="B25">
+        <v>10</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -5060,68 +5302,68 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="2">
-        <v>10</v>
+      <c r="B26">
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>83.3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>84.6</v>
+        <v>87.5</v>
       </c>
       <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="2">
-        <v>8</v>
+      <c r="B27">
+        <v>10</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -5130,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -5140,116 +5382,116 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="2">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
         <v>83.3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F28">
-        <v>83.3</v>
+        <v>81.8</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="2">
-        <v>10</v>
+      <c r="B29">
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>91.7</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>92.9</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="2">
-        <v>8</v>
+      <c r="B30">
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
@@ -5274,41 +5516,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I2:I30">
+    <cfRule type="top10" dxfId="6" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H30">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
-      <formula>85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
-      <formula>90</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="36" priority="2" percent="1" rank="10"/>
+  <conditionalFormatting sqref="F1:F30">
+    <cfRule type="top10" dxfId="4" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5319,9 +5532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,6 +5733,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I6">
+        <f>MAX(0, MAX(G6*6-E6, 30-E6))</f>
+        <v>16</v>
+      </c>
       <c r="J6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5551,6 +5768,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I62" si="3">MAX(0, MAX(G7*6-E7, 30-E7))</f>
+        <v>12</v>
+      </c>
       <c r="J7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5582,6 +5803,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="J8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5613,6 +5838,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5645,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>MAX(G10*10-E10, 30-E10)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J10">
@@ -5680,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I62" si="3">MAX(G11*10-E11, 30-E11)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J11">
@@ -5702,17 +5931,17 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>93.3</v>
+        <v>93.6</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -5889,6 +6118,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5957,7 +6190,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
@@ -5992,7 +6225,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
@@ -6293,25 +6526,25 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>92</v>
+        <v>89.7</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6447,7 +6680,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
@@ -6468,21 +6701,21 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
@@ -6503,21 +6736,21 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F35">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
@@ -6573,21 +6806,21 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
@@ -6601,28 +6834,28 @@
       <c r="B38" s="1">
         <v>13</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>84.6</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <v>85.7</v>
+        <v>91.3</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
@@ -6643,21 +6876,21 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>85.4</v>
+        <v>85.7</v>
       </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
@@ -6706,32 +6939,32 @@
       <c r="B41">
         <v>27</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>77.8</v>
       </c>
       <c r="D41">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F41">
-        <v>80</v>
+        <v>81.8</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -6783,21 +7016,21 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>92.3</v>
+        <v>92.6</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
@@ -6818,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <v>100</v>
@@ -6828,11 +7061,11 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
@@ -6923,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -6933,11 +7166,11 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
@@ -7056,32 +7289,32 @@
       <c r="B51">
         <v>25</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>80</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
       <c r="E51">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F51">
-        <v>80.8</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -7161,7 +7394,7 @@
       <c r="B54">
         <v>37</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>81.099999999999994</v>
       </c>
       <c r="D54">
@@ -7182,7 +7415,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
@@ -7427,7 +7660,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
@@ -7441,7 +7674,7 @@
       <c r="B62">
         <v>24</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>83.3</v>
       </c>
       <c r="D62">
@@ -7462,7 +7695,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
@@ -7488,9 +7721,12 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="F2:F62">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThan">
       <formula>90</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I62">
+    <cfRule type="top10" dxfId="31" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7501,48 +7737,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7560,21 +7796,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>93.9</v>
+        <v>91.9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:J30" si="0">E2-B2</f>
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f>MAX(0, MAX(G2*6-E2, 30-E2))</f>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>G2-D2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7591,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -7601,11 +7841,11 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="1">MAX(G3*10-E3, 30-E3)</f>
-        <v>14</v>
+        <f t="shared" ref="I3:I57" si="1">MAX(0, MAX(G3*6-E3, 30-E3))</f>
+        <v>11</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
@@ -7626,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -7636,11 +7876,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -7661,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -7671,11 +7911,11 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -7696,21 +7936,21 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -7731,25 +7971,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7766,32 +8006,32 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>85.7</v>
+        <v>88.5</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9">
@@ -7801,25 +8041,25 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>202</v>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7836,25 +8076,25 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>79.400000000000006</v>
+        <v>84.3</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7871,21 +8111,21 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>86.4</v>
+        <v>87.2</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -7906,25 +8146,25 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>89.2</v>
+        <v>88.5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <f>MAX(G12*10-E12, 30-E12)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7941,25 +8181,25 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>89.7</v>
+        <v>84.1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I57" si="2">MAX(G13*10-E13, 30-E13)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7976,21 +8216,21 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>92</v>
+        <v>93.1</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -8011,21 +8251,21 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>88.5</v>
+        <v>88.9</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -8046,21 +8286,21 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>92.3</v>
+        <v>92.9</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -8094,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J17">
@@ -8116,21 +8356,21 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>75</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -8164,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J19">
@@ -8199,8 +8439,8 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -8234,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J21">
@@ -8269,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J22">
@@ -8304,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J23">
@@ -8339,8 +8579,8 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -8361,21 +8601,21 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>83.3</v>
+        <v>84.6</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -8386,7 +8626,7 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26">
@@ -8409,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="J26">
@@ -8431,25 +8671,25 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>73.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <f>MAX(G27*8-E27, 30-E27)</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8479,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J28">
@@ -8501,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -8511,11 +8751,11 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -8549,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="J30">
@@ -8580,11 +8820,15 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H57" si="3">E31-B31</f>
+        <f t="shared" ref="H31:H57" si="2">E31-B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J57" si="4">G31-D31</f>
+        <f t="shared" ref="J31:J57" si="3">G31-D31</f>
         <v>0</v>
       </c>
     </row>
@@ -8611,15 +8855,15 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8646,15 +8890,15 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8681,15 +8925,15 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8716,15 +8960,15 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +8976,7 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>0</v>
       </c>
       <c r="C36">
@@ -8751,15 +8995,15 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8786,11 +9030,15 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8817,15 +9065,15 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8852,15 +9100,15 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8887,15 +9135,15 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8922,15 +9170,15 @@
         <v>7</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8957,15 +9205,15 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8992,15 +9240,15 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9018,24 +9266,24 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>77.8</v>
+        <v>81.8</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -9043,7 +9291,7 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>0</v>
       </c>
       <c r="C45">
@@ -9062,15 +9310,15 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9097,15 +9345,15 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9123,25 +9371,25 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -9158,32 +9406,32 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>0</v>
       </c>
       <c r="C49">
@@ -9202,15 +9450,15 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9218,7 +9466,7 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50">
@@ -9237,15 +9485,15 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9253,7 +9501,7 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51">
@@ -9272,15 +9520,15 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9307,15 +9555,15 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9342,15 +9590,15 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9368,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>100</v>
@@ -9377,15 +9625,15 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9393,7 +9641,7 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55">
@@ -9412,15 +9660,15 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9437,8 +9685,8 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" t="s">
-        <v>203</v>
+      <c r="E56">
+        <v>50</v>
       </c>
       <c r="F56">
         <v>94</v>
@@ -9446,12 +9694,16 @@
       <c r="G56">
         <v>3</v>
       </c>
-      <c r="H56" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9469,55 +9721,2577 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>79.2</v>
       </c>
       <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="I57">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="32" priority="6" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="28" priority="10" percent="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="31" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F57">
+    <cfRule type="top10" dxfId="26" priority="7" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I57">
+    <cfRule type="top10" dxfId="25" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="2" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="28" priority="4" percent="1" bottom="1" rank="20"/>
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="30" priority="3" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426B76C-D534-44D5-8BA5-0757F9391933}">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J30" si="0">E2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>92.3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>92.3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>86.7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>88.2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>82.6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>82.6</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>94.1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>94.1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>83.3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>83.3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>84.9</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>84.9</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>93.8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>93.8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>86.7</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>86.7</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>83.9</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>83.9</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>89.3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>89.3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>82.6</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>82.6</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>MAX(0, MAX(G15*6-E15, 20-E15))</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>85.7</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>85.7</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>MAX(0, MAX(G16*6-E16, 25-E16))</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I59" si="1">MAX(0, MAX(G17*6-E17, 25-E17))</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>94.4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>94.4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>94.7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>94.7</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>90.9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>90.9</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>90.9</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>90.9</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>95.2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>95.2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>89.5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>89.5</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>84.6</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>82.2</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>82.2</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>91.2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>91.2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>83.3</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>83.3</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>85.7</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>85.7</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>82.6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>82.6</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>90.9</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>90.9</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>86.4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>86.4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H57" si="2">E31-B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J57" si="3">G31-D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>91.7</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>91.7</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>82.6</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>82.6</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>95.7</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>95.7</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>85.2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>85.2</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>83.3</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>83.3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>53</v>
+      </c>
+      <c r="F39">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>83.3</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>83.3</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>83.3</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>83.3</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>85.2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>85.2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>88.9</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>88.9</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>82.8</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>82.8</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>84.4</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>84.4</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>92</v>
+      </c>
+      <c r="C47">
+        <v>81.5</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>92</v>
+      </c>
+      <c r="F47">
+        <v>81.5</v>
+      </c>
+      <c r="G47">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>86.8</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <v>86.8</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>91.7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>91.7</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>82.2</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>82.2</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>84.9</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>33</v>
+      </c>
+      <c r="F51">
+        <v>84.9</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52">
+        <v>159</v>
+      </c>
+      <c r="C52">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>159</v>
+      </c>
+      <c r="F52">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>MAX(0, MAX(G52*6-E52, 25-E52))</f>
+        <v>21</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>89.7</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>89.7</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>88.9</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>88.9</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>92.6</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>27</v>
+      </c>
+      <c r="F55">
+        <v>92.6</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>86.7</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>86.7</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57">
+        <v>261</v>
+      </c>
+      <c r="C57">
+        <v>74.7</v>
+      </c>
+      <c r="D57">
+        <v>66</v>
+      </c>
+      <c r="E57">
+        <v>261</v>
+      </c>
+      <c r="F57">
+        <v>74.7</v>
+      </c>
+      <c r="G57">
+        <v>66</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>MAX(0, MAX(G57*4-E57, 25-E57))</f>
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58">
+        <v>116</v>
+      </c>
+      <c r="C58">
+        <v>83.6</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>116</v>
+      </c>
+      <c r="F58">
+        <v>83.6</v>
+      </c>
+      <c r="G58">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58:H59" si="4">E58-B58</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58:J59" si="5">G58-D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>87.5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>32</v>
+      </c>
+      <c r="F59">
+        <v>87.5</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{7426B76C-D534-44D5-8BA5-0757F9391933}"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThan">
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1 J60:J1048576">
+    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 F60:F1048576">
+    <cfRule type="top10" dxfId="14" priority="12" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1 I60:I1048576">
+    <cfRule type="top10" dxfId="13" priority="11" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F59">
+    <cfRule type="top10" dxfId="12" priority="7" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I59">
+    <cfRule type="top10" dxfId="11" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J59">
+    <cfRule type="top10" dxfId="10" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C59">
+    <cfRule type="top10" dxfId="9" priority="3" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B59">
+    <cfRule type="top10" dxfId="8" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G59">
+    <cfRule type="top10" dxfId="7" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D3A284-ED61-41AE-883A-30D17A911C8E}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>95.2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>66.7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>92</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>91.4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{E2D3A284-ED61-41AE-883A-30D17A911C8E}"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+      <formula>85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="top10" dxfId="20" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/hwang5_deloitte_com_au/Documents/Documents/UiPath/AOPS_UiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1432" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44454C7D-2DEF-4614-B026-ED4350C7C36F}"/>
+  <xr:revisionPtr revIDLastSave="1513" documentId="13_ncr:1_{6C51D61D-883E-4984-84E9-1D36387C9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF736CDD-8CF8-445B-A2FC-AAA0AEDBE276}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19110" yWindow="-10700" windowWidth="19200" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10810" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number Theory" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Precalculus!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="280">
   <si>
     <t>Topic</t>
   </si>
@@ -786,13 +787,115 @@
   </si>
   <si>
     <t>Basic Probability</t>
+  </si>
+  <si>
+    <t>Trigonometric Values</t>
+  </si>
+  <si>
+    <t>Graphs of Trigonometric Functions</t>
+  </si>
+  <si>
+    <t>Inverse Trigonometric Functions</t>
+  </si>
+  <si>
+    <t>Basic Trigonometric Identities</t>
+  </si>
+  <si>
+    <t>Sums and Differences of Angles</t>
+  </si>
+  <si>
+    <t>Double and Half Angle Identities</t>
+  </si>
+  <si>
+    <t>Sum-to-Product and Product-to-Sum</t>
+  </si>
+  <si>
+    <t>Solving Trigonometric Equations</t>
+  </si>
+  <si>
+    <t>Basic Triangle Geometry</t>
+  </si>
+  <si>
+    <t>Advanced Triangle Geometry</t>
+  </si>
+  <si>
+    <t>Parametric Curves</t>
+  </si>
+  <si>
+    <t>Polar Coordinates</t>
+  </si>
+  <si>
+    <t>3D Coordinates</t>
+  </si>
+  <si>
+    <t>Spherical and Cylindrical Coordinates</t>
+  </si>
+  <si>
+    <t>The Complex Plane</t>
+  </si>
+  <si>
+    <t>Polar Form of Complex Numbers</t>
+  </si>
+  <si>
+    <t>Exponential Form of Complex Numbers</t>
+  </si>
+  <si>
+    <t>Roots of Unity</t>
+  </si>
+  <si>
+    <t>Geometry of Complex Numbers</t>
+  </si>
+  <si>
+    <t>2D Vector Basics</t>
+  </si>
+  <si>
+    <t>Lines with 2D Vectors</t>
+  </si>
+  <si>
+    <t>Projections of 2D Vectors</t>
+  </si>
+  <si>
+    <t>Solving Geometry Problems with Vectors</t>
+  </si>
+  <si>
+    <t>2D Matrix Basics</t>
+  </si>
+  <si>
+    <t>2D Matrix Transformations</t>
+  </si>
+  <si>
+    <t>2D Matrix Determinant</t>
+  </si>
+  <si>
+    <t>2D Matrix Inverses</t>
+  </si>
+  <si>
+    <t>3D Vector Basics</t>
+  </si>
+  <si>
+    <t>Lines with 3D Vectors</t>
+  </si>
+  <si>
+    <t>Cross Product</t>
+  </si>
+  <si>
+    <t>Planes with 3D Vectors</t>
+  </si>
+  <si>
+    <t>Projections of 3D Vectors</t>
+  </si>
+  <si>
+    <t>3D Matrix Basics</t>
+  </si>
+  <si>
+    <t>3D Matrix Determinant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,8 +1030,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,8 +1235,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1242,6 +1363,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1287,12 +1436,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1338,37 +1495,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2247,7 +2374,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,45 +3449,42 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J1 J31:J1048576">
-    <cfRule type="cellIs" dxfId="58" priority="33" operator="greaterThan">
+  <conditionalFormatting sqref="J31:J1048576">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="top10" dxfId="55" priority="16" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="54" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
       <formula>89</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="52" priority="8" percent="1" bottom="1" rank="11"/>
+    <cfRule type="top10" dxfId="50" priority="8" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="top10" dxfId="51" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="49" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="lessThan">
       <formula>89</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="49" priority="4" percent="1" bottom="1" rank="11"/>
+    <cfRule type="top10" dxfId="47" priority="4" percent="1" bottom="1" rank="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I30">
-    <cfRule type="top10" dxfId="48" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="47" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3373,7 +3497,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,66 +4499,55 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G28">
-    <cfRule type="top10" dxfId="42" priority="15" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="41" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="15" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="40" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H31:H1048576">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="H31:H1048576">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H28">
-    <cfRule type="top10" dxfId="37" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F28">
     <cfRule type="top10" dxfId="36" priority="8" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="35" priority="7" percent="1" rank="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I28">
+    <cfRule type="top10" dxfId="35" priority="5" rank="10"/>
     <cfRule type="top10" dxfId="34" priority="6" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="33" priority="5" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D28">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="20"/>
-    <cfRule type="top10" dxfId="2" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="2" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="32" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C28">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="20"/>
+    <cfRule type="top10" dxfId="30" priority="1" percent="1" bottom="1" rank="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4445,9 +4558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4501,17 +4614,17 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H30" si="0">E2-B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J30" si="1">G2-D2</f>
@@ -4532,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -4542,11 +4655,11 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f>MAX(0, MAX(G3*8-E3, 30-E3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
@@ -4742,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>98</v>
@@ -4752,7 +4865,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -4847,17 +4960,17 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>95.2</v>
+        <v>95.4</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -5057,25 +5170,25 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18">
-        <v>88.1</v>
+        <v>87.3</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5127,21 +5240,21 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F20">
-        <v>87</v>
+        <v>87.7</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
@@ -5197,25 +5310,25 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F22">
-        <v>92.6</v>
+        <v>93.1</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5302,21 +5415,21 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
@@ -5337,17 +5450,17 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>87.5</v>
+        <v>87.8</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -5372,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -5382,11 +5495,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
@@ -5407,25 +5520,25 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>81.8</v>
+        <v>86.1</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5442,25 +5555,25 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>92.9</v>
+        <v>93.3</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5477,25 +5590,31 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F30">
-        <v>91.7</v>
+        <v>93.6</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>SUM(H2:H30)</f>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -5516,12 +5635,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="F1:F30">
+    <cfRule type="top10" dxfId="29" priority="2" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I30">
-    <cfRule type="top10" dxfId="6" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="2" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F30">
-    <cfRule type="top10" dxfId="4" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7721,12 +7839,12 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <conditionalFormatting sqref="F2:F62">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I62">
-    <cfRule type="top10" dxfId="31" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7739,7 +7857,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9745,30 +9863,30 @@
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J57">
-    <cfRule type="top10" dxfId="28" priority="10" percent="1" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="10" percent="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="top10" dxfId="27" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F57">
-    <cfRule type="top10" dxfId="26" priority="7" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="top10" dxfId="25" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="24" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E57">
-    <cfRule type="top10" dxfId="23" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9777,11 +9895,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426B76C-D534-44D5-8BA5-0757F9391933}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9868,17 +9986,17 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>92.3</v>
+        <v>93.8</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
@@ -9899,17 +10017,17 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>88.2</v>
+        <v>89.5</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -9930,21 +10048,21 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>82.6</v>
+        <v>85.7</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9961,17 +10079,17 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>94.1</v>
+        <v>94.7</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -9992,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -10002,7 +10120,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -10023,21 +10141,21 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>83.3</v>
+        <v>82.4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10054,21 +10172,21 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>84.9</v>
+        <v>85.7</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10085,17 +10203,17 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>93.8</v>
+        <v>94.1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -10116,21 +10234,25 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>86.7</v>
+        <v>86.1</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I59" si="1">MAX(0, MAX(G11*7-E11, 30-E11))</f>
         <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10147,16 +10269,20 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>83.9</v>
+        <v>84.9</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -10178,21 +10304,25 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>89.3</v>
+        <v>87.9</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10209,17 +10339,21 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F14">
-        <v>82.6</v>
+        <v>84.3</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -10240,21 +10374,21 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f>MAX(0, MAX(G15*6-E15, 20-E15))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -10275,20 +10409,20 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16">
-        <v>85.7</v>
+        <v>88.2</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <f>MAX(0, MAX(G16*6-E16, 25-E16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -10310,25 +10444,25 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>85</v>
+        <v>86.1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I59" si="1">MAX(0, MAX(G17*6-E17, 25-E17))</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -10345,21 +10479,21 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>94.4</v>
+        <v>96</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -10380,21 +10514,21 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -10415,21 +10549,21 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -10450,21 +10584,21 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -10485,21 +10619,21 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>95.2</v>
+        <v>95.7</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -10520,25 +10654,25 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>89.5</v>
+        <v>82.6</v>
       </c>
       <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -10555,17 +10689,17 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>84.6</v>
+        <v>88.6</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -10590,21 +10724,21 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>82.2</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -10625,17 +10759,17 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F26">
-        <v>91.2</v>
+        <v>92.1</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -10660,25 +10794,25 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F27">
-        <v>83.3</v>
+        <v>84.1</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f>MAX(0, MAX(G27*6-E27, 30-E27))</f>
         <v>0</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -10695,21 +10829,21 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>85.7</v>
+        <v>87</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -10730,25 +10864,25 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F29">
-        <v>82.6</v>
+        <v>82.1</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -10765,21 +10899,21 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>90.9</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
@@ -10800,21 +10934,21 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>86.4</v>
+        <v>87.5</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H57" si="2">E31-B31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <f t="shared" ref="J31:J57" si="3">G31-D31</f>
@@ -10835,21 +10969,21 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -10870,25 +11004,25 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F33">
-        <v>82.6</v>
+        <v>83</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -10905,21 +11039,21 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -10954,7 +11088,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -10975,17 +11109,17 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>85.2</v>
+        <v>87.1</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -11010,17 +11144,17 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -11045,25 +11179,25 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>83.3</v>
+        <v>83.8</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -11080,25 +11214,25 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F39">
-        <v>83</v>
+        <v>82.5</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -11115,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <v>100</v>
@@ -11125,11 +11259,11 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -11150,17 +11284,17 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F41">
-        <v>83.3</v>
+        <v>85.7</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -11168,7 +11302,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -11185,21 +11319,21 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42">
-        <v>83.3</v>
+        <v>83.9</v>
       </c>
       <c r="G42">
         <v>5</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -11220,21 +11354,21 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>85.2</v>
+        <v>86.2</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -11255,17 +11389,17 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F44">
-        <v>88.9</v>
+        <v>89.2</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -11273,7 +11407,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -11290,21 +11424,21 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F45">
-        <v>82.8</v>
+        <v>84.9</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
@@ -11339,7 +11473,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -11360,25 +11494,25 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F47">
-        <v>81.5</v>
+        <v>82.5</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>MAX(0, MAX(G47*6-E47, 30-E47))</f>
+        <v>6</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -11395,25 +11529,25 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F48">
-        <v>86.8</v>
+        <v>85.4</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -11430,17 +11564,17 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F49">
-        <v>91.7</v>
+        <v>93.1</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -11465,21 +11599,21 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F50">
-        <v>82.2</v>
+        <v>83.7</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -11500,25 +11634,25 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F51">
-        <v>84.9</v>
+        <v>82.9</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -11535,25 +11669,25 @@
         <v>30</v>
       </c>
       <c r="E52">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F52">
-        <v>81.099999999999994</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I52">
-        <f>MAX(0, MAX(G52*6-E52, 25-E52))</f>
-        <v>21</v>
+        <f>MAX(0, MAX(G52*6-E52, 30-E52))</f>
+        <v>35</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -11605,25 +11739,25 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>88.9</v>
+        <v>86.4</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -11654,7 +11788,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -11675,17 +11809,17 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F56">
-        <v>86.7</v>
+        <v>87.9</v>
       </c>
       <c r="G56">
         <v>4</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -11710,21 +11844,21 @@
         <v>66</v>
       </c>
       <c r="E57">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F57">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="G57">
         <v>66</v>
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <f>MAX(0, MAX(G57*4-E57, 25-E57))</f>
-        <v>3</v>
+        <f>MAX(0, MAX(G57*5-E57, 30-E57))</f>
+        <v>66</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -11745,21 +11879,21 @@
         <v>19</v>
       </c>
       <c r="E58">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F58">
-        <v>83.6</v>
+        <v>84.2</v>
       </c>
       <c r="G58">
         <v>19</v>
       </c>
       <c r="H58">
         <f t="shared" ref="H58:H59" si="4">E58-B58</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J58">
         <f t="shared" ref="J58:J59" si="5">G58-D58</f>
@@ -11799,6 +11933,12 @@
       <c r="J59">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f>SUM(H2:H59)</f>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -11846,15 +11986,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D3A284-ED61-41AE-883A-30D17A911C8E}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11885,19 +12029,57 @@
       <c r="J1" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>95.2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>95.2</v>
+        <v>96.6</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H36" si="0">E2-B2</f>
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <f>MAX(0, MAX(G2*6-E2, 30-E2))</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J36" si="1">G2-D2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>4</v>
       </c>
@@ -11907,21 +12089,71 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I36" si="2">MAX(0, MAX(G3*6-E3, 30-E3))</f>
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>202</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -11929,118 +12161,393 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>202</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>202</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>202</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>202</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>66.7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>66.7</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>202</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>202</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>202</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>202</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>202</v>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="E16">
         <v>25</v>
       </c>
@@ -12050,8 +12557,33 @@
       <c r="G16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>91.4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
       <c r="E17">
         <v>35</v>
       </c>
@@ -12061,30 +12593,105 @@
       <c r="G17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>202</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>202</v>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20">
         <v>5</v>
       </c>
@@ -12094,8 +12701,33 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21">
         <v>4</v>
       </c>
@@ -12105,192 +12737,583 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>202</v>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>202</v>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>202</v>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>202</v>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>202</v>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>202</v>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>202</v>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>202</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>202</v>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>202</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>202</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>202</v>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>202</v>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>202</v>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
-        <v>202</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{E2D3A284-ED61-41AE-883A-30D17A911C8E}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="top10" dxfId="20" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I36">
+    <cfRule type="top10" dxfId="1" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
